--- a/DM/databank/banking/deal_management/DealManagement_Test_39772.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39772.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="446">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -2046,125 +2046,125 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2458,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" topLeftCell="E139" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3329,11 +3329,11 @@
       <c r="I20" s="14"/>
     </row>
     <row r="22" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
     </row>
     <row r="23" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
@@ -3387,24 +3387,24 @@
       </c>
     </row>
     <row r="27" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
       <c r="BM27" s="16"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="16"/>
@@ -6281,12 +6281,12 @@
       <c r="DM60" s="16"/>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="122" t="s">
+      <c r="A62" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="B62" s="123"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="124"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="112"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6324,17 +6324,17 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="122" t="s">
+      <c r="A66" s="110" t="s">
         <v>237</v>
       </c>
-      <c r="B66" s="123"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="124"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="112"/>
     </row>
     <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
@@ -6408,11 +6408,11 @@
       <c r="I68" s="31"/>
       <c r="J68" s="41" t="str">
         <f t="shared" ref="J68:J79" ca="1" si="0">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K68" s="41" t="str">
         <f t="shared" ref="K68:K79" ca="1" si="1">TEXT(TODAY()-1,"MM-DD-YYYY")</f>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>168</v>
@@ -6450,11 +6450,11 @@
       <c r="I69" s="31"/>
       <c r="J69" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K69" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>168</v>
@@ -6492,11 +6492,11 @@
       <c r="I70" s="31"/>
       <c r="J70" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K70" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L70" s="32" t="s">
         <v>168</v>
@@ -6534,11 +6534,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K71" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6576,11 +6576,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K72" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -6618,11 +6618,11 @@
       <c r="I73" s="31"/>
       <c r="J73" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K73" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -6660,11 +6660,11 @@
       <c r="I74" s="31"/>
       <c r="J74" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K74" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -6702,11 +6702,11 @@
       <c r="I75" s="31"/>
       <c r="J75" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K75" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>168</v>
@@ -6744,11 +6744,11 @@
       <c r="I76" s="31"/>
       <c r="J76" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K76" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L76" s="32" t="s">
         <v>168</v>
@@ -6786,11 +6786,11 @@
       <c r="I77" s="31"/>
       <c r="J77" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K77" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L77" s="32" t="s">
         <v>168</v>
@@ -6828,11 +6828,11 @@
       <c r="I78" s="31"/>
       <c r="J78" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K78" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L78" s="32" t="s">
         <v>168</v>
@@ -6870,11 +6870,11 @@
       <c r="I79" s="31"/>
       <c r="J79" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K79" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L79" s="32" t="s">
         <v>168</v>
@@ -6888,27 +6888,27 @@
       </c>
     </row>
     <row r="81" spans="1:78" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="125" t="s">
+      <c r="A81" s="113" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="125"/>
-      <c r="C81" s="125"/>
-      <c r="D81" s="125"/>
-      <c r="E81" s="125"/>
-      <c r="F81" s="125"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="125"/>
-      <c r="J81" s="125"/>
-      <c r="K81" s="125"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="113"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="113"/>
+      <c r="F81" s="113"/>
+      <c r="G81" s="113"/>
+      <c r="H81" s="113"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="113"/>
+      <c r="K81" s="113"/>
     </row>
     <row r="83" spans="1:78" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="126" t="s">
+      <c r="A83" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="126"/>
-      <c r="C83" s="126"/>
-      <c r="D83" s="126"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="s">
@@ -7037,33 +7037,33 @@
       <c r="S88" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="T88" s="101" t="s">
+      <c r="T88" s="122" t="s">
         <v>286</v>
       </c>
-      <c r="U88" s="102"/>
-      <c r="V88" s="103"/>
-      <c r="W88" s="101" t="s">
+      <c r="U88" s="123"/>
+      <c r="V88" s="124"/>
+      <c r="W88" s="122" t="s">
         <v>287</v>
       </c>
-      <c r="X88" s="103"/>
+      <c r="X88" s="124"/>
       <c r="Y88" s="48"/>
-      <c r="Z88" s="98" t="s">
+      <c r="Z88" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="AA88" s="99"/>
-      <c r="AB88" s="99"/>
-      <c r="AC88" s="99"/>
-      <c r="AD88" s="99"/>
-      <c r="AE88" s="99"/>
-      <c r="AF88" s="100"/>
-      <c r="AG88" s="98" t="s">
+      <c r="AA88" s="120"/>
+      <c r="AB88" s="120"/>
+      <c r="AC88" s="120"/>
+      <c r="AD88" s="120"/>
+      <c r="AE88" s="120"/>
+      <c r="AF88" s="121"/>
+      <c r="AG88" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="AH88" s="99"/>
-      <c r="AI88" s="99"/>
-      <c r="AJ88" s="99"/>
-      <c r="AK88" s="99"/>
-      <c r="AL88" s="100"/>
+      <c r="AH88" s="120"/>
+      <c r="AI88" s="120"/>
+      <c r="AJ88" s="120"/>
+      <c r="AK88" s="120"/>
+      <c r="AL88" s="121"/>
       <c r="AM88" s="49"/>
       <c r="AN88" s="50"/>
       <c r="AO88" s="50"/>
@@ -7249,11 +7249,11 @@
       </c>
       <c r="G90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="H90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="I90" s="55"/>
       <c r="J90" s="55">
@@ -7500,7 +7500,7 @@
       </c>
       <c r="C94" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-15</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>153</v>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="C95" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-15</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D95" s="33" t="s">
         <v>153</v>
@@ -7610,66 +7610,66 @@
       <c r="BZ95" s="51"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A97" s="106" t="s">
+      <c r="A97" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="B97" s="107"/>
-      <c r="C97" s="107"/>
-      <c r="D97" s="107"/>
-      <c r="E97" s="107"/>
-      <c r="F97" s="107"/>
-      <c r="G97" s="107"/>
-      <c r="H97" s="107"/>
-      <c r="I97" s="107"/>
-      <c r="J97" s="107"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="105"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="62"/>
       <c r="B98" s="63"/>
-      <c r="C98" s="90" t="s">
+      <c r="C98" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="D98" s="90"/>
-      <c r="E98" s="90"/>
-      <c r="F98" s="90"/>
-      <c r="G98" s="90"/>
-      <c r="H98" s="90"/>
-      <c r="I98" s="90"/>
-      <c r="J98" s="90"/>
-      <c r="K98" s="90"/>
+      <c r="D98" s="126"/>
+      <c r="E98" s="126"/>
+      <c r="F98" s="126"/>
+      <c r="G98" s="126"/>
+      <c r="H98" s="126"/>
+      <c r="I98" s="126"/>
+      <c r="J98" s="126"/>
+      <c r="K98" s="126"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="91" t="s">
+      <c r="A99" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="B99" s="91" t="s">
+      <c r="B99" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="C99" s="95" t="s">
+      <c r="C99" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="D99" s="96"/>
-      <c r="E99" s="96"/>
-      <c r="F99" s="97"/>
-      <c r="G99" s="111" t="s">
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H99" s="127"/>
-      <c r="I99" s="127"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="91" t="s">
+      <c r="H99" s="89"/>
+      <c r="I99" s="89"/>
+      <c r="J99" s="90"/>
+      <c r="K99" s="93" t="s">
         <v>337</v>
       </c>
-      <c r="L99" s="91" t="s">
+      <c r="L99" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="R99" s="91" t="s">
+      <c r="R99" s="93" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="92"/>
-      <c r="B100" s="92"/>
+      <c r="A100" s="94"/>
+      <c r="B100" s="94"/>
       <c r="C100" s="64" t="s">
         <v>339</v>
       </c>
@@ -7694,9 +7694,9 @@
       <c r="J100" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K100" s="92"/>
-      <c r="L100" s="92"/>
-      <c r="R100" s="92"/>
+      <c r="K100" s="94"/>
+      <c r="L100" s="94"/>
+      <c r="R100" s="94"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="40" t="s">
@@ -7747,76 +7747,76 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="106" t="s">
+      <c r="A103" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="107"/>
-      <c r="G103" s="107"/>
-      <c r="H103" s="107"/>
-      <c r="I103" s="107"/>
-      <c r="J103" s="107"/>
-      <c r="K103" s="107"/>
-      <c r="L103" s="107"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="105"/>
+      <c r="I103" s="105"/>
+      <c r="J103" s="105"/>
+      <c r="K103" s="105"/>
+      <c r="L103" s="105"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A104" s="113" t="s">
+      <c r="A104" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="113" t="s">
+      <c r="B104" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="108" t="s">
+      <c r="C104" s="127" t="s">
         <v>347</v>
       </c>
-      <c r="D104" s="116" t="s">
+      <c r="D104" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="E104" s="93" t="s">
+      <c r="E104" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="F104" s="93"/>
-      <c r="G104" s="93"/>
-      <c r="H104" s="93"/>
-      <c r="I104" s="94" t="s">
+      <c r="F104" s="125"/>
+      <c r="G104" s="125"/>
+      <c r="H104" s="125"/>
+      <c r="I104" s="118" t="s">
         <v>349</v>
       </c>
-      <c r="J104" s="94"/>
-      <c r="K104" s="94"/>
-      <c r="L104" s="94"/>
+      <c r="J104" s="118"/>
+      <c r="K104" s="118"/>
+      <c r="L104" s="118"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="114"/>
-      <c r="B105" s="114"/>
-      <c r="C105" s="109"/>
-      <c r="D105" s="117"/>
-      <c r="E105" s="95" t="s">
+      <c r="A105" s="97"/>
+      <c r="B105" s="97"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="116"/>
+      <c r="E105" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="F105" s="97"/>
-      <c r="G105" s="111" t="s">
+      <c r="F105" s="92"/>
+      <c r="G105" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H105" s="112"/>
-      <c r="I105" s="95" t="s">
+      <c r="H105" s="90"/>
+      <c r="I105" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="J105" s="97"/>
-      <c r="K105" s="111" t="s">
+      <c r="J105" s="92"/>
+      <c r="K105" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="L105" s="112"/>
+      <c r="L105" s="90"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="115"/>
-      <c r="B106" s="115" t="s">
+      <c r="A106" s="98"/>
+      <c r="B106" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C106" s="110"/>
-      <c r="D106" s="118"/>
+      <c r="C106" s="100"/>
+      <c r="D106" s="117"/>
       <c r="E106" s="64" t="s">
         <v>351</v>
       </c>
@@ -7891,61 +7891,61 @@
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A109" s="106" t="s">
+      <c r="A109" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="B109" s="107"/>
-      <c r="C109" s="107"/>
-      <c r="D109" s="107"/>
-      <c r="E109" s="107"/>
-      <c r="F109" s="107"/>
-      <c r="G109" s="107"/>
-      <c r="H109" s="107"/>
-      <c r="I109" s="107"/>
-      <c r="J109" s="107"/>
+      <c r="B109" s="105"/>
+      <c r="C109" s="105"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="105"/>
+      <c r="G109" s="105"/>
+      <c r="H109" s="105"/>
+      <c r="I109" s="105"/>
+      <c r="J109" s="105"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="62"/>
       <c r="B110" s="63"/>
-      <c r="C110" s="90" t="s">
+      <c r="C110" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="90"/>
-      <c r="E110" s="90"/>
-      <c r="F110" s="90"/>
-      <c r="G110" s="90"/>
-      <c r="H110" s="90"/>
-      <c r="I110" s="90"/>
-      <c r="J110" s="90"/>
-      <c r="K110" s="90"/>
+      <c r="D110" s="126"/>
+      <c r="E110" s="126"/>
+      <c r="F110" s="126"/>
+      <c r="G110" s="126"/>
+      <c r="H110" s="126"/>
+      <c r="I110" s="126"/>
+      <c r="J110" s="126"/>
+      <c r="K110" s="126"/>
       <c r="Z110" s="69"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A111" s="91" t="s">
+      <c r="A111" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="B111" s="91" t="s">
+      <c r="B111" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="C111" s="95" t="s">
+      <c r="C111" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="D111" s="96"/>
-      <c r="E111" s="96"/>
-      <c r="F111" s="97"/>
-      <c r="G111" s="111" t="s">
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="92"/>
+      <c r="G111" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H111" s="127"/>
-      <c r="I111" s="127"/>
-      <c r="J111" s="112"/>
-      <c r="K111" s="88" t="s">
+      <c r="H111" s="89"/>
+      <c r="I111" s="89"/>
+      <c r="J111" s="90"/>
+      <c r="K111" s="102" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A112" s="92"/>
-      <c r="B112" s="92"/>
+      <c r="A112" s="94"/>
+      <c r="B112" s="94"/>
       <c r="C112" s="64" t="s">
         <v>339</v>
       </c>
@@ -7970,7 +7970,7 @@
       <c r="J112" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K112" s="89"/>
+      <c r="K112" s="103"/>
     </row>
     <row r="113" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A113" s="55" t="s">
@@ -8078,7 +8078,7 @@
       <c r="I117" s="72"/>
       <c r="J117" s="73">
         <f ca="1">TODAY()</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="K117" s="73">
         <v>234</v>
@@ -8088,26 +8088,26 @@
       </c>
     </row>
     <row r="119" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A119" s="104" t="s">
+      <c r="A119" s="95" t="s">
         <v>404</v>
       </c>
-      <c r="B119" s="105"/>
-      <c r="C119" s="105"/>
-      <c r="D119" s="105"/>
-      <c r="E119" s="105"/>
-      <c r="F119" s="105"/>
-      <c r="G119" s="105"/>
-      <c r="H119" s="105"/>
-      <c r="I119" s="105"/>
-      <c r="J119" s="105"/>
-      <c r="K119" s="105"/>
-      <c r="L119" s="105"/>
-      <c r="M119" s="105"/>
-      <c r="N119" s="105"/>
-      <c r="O119" s="105"/>
-      <c r="P119" s="105"/>
-      <c r="Q119" s="105"/>
-      <c r="R119" s="105"/>
+      <c r="B119" s="96"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="96"/>
+      <c r="E119" s="96"/>
+      <c r="F119" s="96"/>
+      <c r="G119" s="96"/>
+      <c r="H119" s="96"/>
+      <c r="I119" s="96"/>
+      <c r="J119" s="96"/>
+      <c r="K119" s="96"/>
+      <c r="L119" s="96"/>
+      <c r="M119" s="96"/>
+      <c r="N119" s="96"/>
+      <c r="O119" s="96"/>
+      <c r="P119" s="96"/>
+      <c r="Q119" s="96"/>
+      <c r="R119" s="96"/>
       <c r="S119" s="79"/>
       <c r="T119" s="79"/>
       <c r="U119" s="79"/>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="D121" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E121" s="78"/>
       <c r="F121" s="78" t="s">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="D122" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E122" s="78"/>
       <c r="F122" s="78" t="s">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="D123" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E123" s="76"/>
       <c r="F123" s="76" t="s">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D124" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-08-31</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E124" s="81"/>
       <c r="F124" s="81" t="s">
@@ -8464,26 +8464,26 @@
       </c>
     </row>
     <row r="126" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A126" s="104" t="s">
+      <c r="A126" s="95" t="s">
         <v>403</v>
       </c>
-      <c r="B126" s="105"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="105"/>
-      <c r="I126" s="105"/>
-      <c r="J126" s="105"/>
-      <c r="K126" s="105"/>
-      <c r="L126" s="105"/>
-      <c r="M126" s="105"/>
-      <c r="N126" s="105"/>
-      <c r="O126" s="105"/>
-      <c r="P126" s="105"/>
-      <c r="Q126" s="105"/>
-      <c r="R126" s="105"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="96"/>
+      <c r="F126" s="96"/>
+      <c r="G126" s="96"/>
+      <c r="H126" s="96"/>
+      <c r="I126" s="96"/>
+      <c r="J126" s="96"/>
+      <c r="K126" s="96"/>
+      <c r="L126" s="96"/>
+      <c r="M126" s="96"/>
+      <c r="N126" s="96"/>
+      <c r="O126" s="96"/>
+      <c r="P126" s="96"/>
+      <c r="Q126" s="96"/>
+      <c r="R126" s="96"/>
       <c r="S126" s="80"/>
       <c r="T126" s="80"/>
       <c r="U126" s="80"/>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="D128" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E128" s="78"/>
       <c r="F128" s="78" t="s">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="D129" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E129" s="78"/>
       <c r="F129" s="78" t="s">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="D130" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E130" s="76"/>
       <c r="F130" s="76" t="s">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D131" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-08-31</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E131" s="81"/>
       <c r="F131" s="81" t="s">
@@ -8844,26 +8844,26 @@
       </c>
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A133" s="104" t="s">
+      <c r="A133" s="95" t="s">
         <v>405</v>
       </c>
-      <c r="B133" s="105"/>
-      <c r="C133" s="105"/>
-      <c r="D133" s="105"/>
-      <c r="E133" s="105"/>
-      <c r="F133" s="105"/>
-      <c r="G133" s="105"/>
-      <c r="H133" s="105"/>
-      <c r="I133" s="105"/>
-      <c r="J133" s="105"/>
-      <c r="K133" s="105"/>
-      <c r="L133" s="105"/>
-      <c r="M133" s="105"/>
-      <c r="N133" s="105"/>
-      <c r="O133" s="105"/>
-      <c r="P133" s="105"/>
-      <c r="Q133" s="105"/>
-      <c r="R133" s="105"/>
+      <c r="B133" s="96"/>
+      <c r="C133" s="96"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="96"/>
+      <c r="F133" s="96"/>
+      <c r="G133" s="96"/>
+      <c r="H133" s="96"/>
+      <c r="I133" s="96"/>
+      <c r="J133" s="96"/>
+      <c r="K133" s="96"/>
+      <c r="L133" s="96"/>
+      <c r="M133" s="96"/>
+      <c r="N133" s="96"/>
+      <c r="O133" s="96"/>
+      <c r="P133" s="96"/>
+      <c r="Q133" s="96"/>
+      <c r="R133" s="96"/>
       <c r="S133" s="83"/>
       <c r="T133" s="83"/>
       <c r="U133" s="83"/>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="D135" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E135" s="78"/>
       <c r="F135" s="78" t="str">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="D136" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E136" s="78"/>
       <c r="F136" s="78" t="str">
@@ -9154,7 +9154,7 @@
       <c r="I140" s="72"/>
       <c r="J140" s="73">
         <f ca="1">TODAY()</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="K140" s="73">
         <v>234</v>
@@ -9230,7 +9230,7 @@
       <c r="I144" s="72"/>
       <c r="J144" s="73">
         <f ca="1">TODAY()</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="K144" s="73">
         <v>234</v>
@@ -9240,76 +9240,76 @@
       </c>
     </row>
     <row r="146" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="106" t="s">
+      <c r="A146" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="B146" s="107"/>
-      <c r="C146" s="107"/>
-      <c r="D146" s="107"/>
-      <c r="E146" s="107"/>
-      <c r="F146" s="107"/>
-      <c r="G146" s="107"/>
-      <c r="H146" s="107"/>
-      <c r="I146" s="107"/>
-      <c r="J146" s="107"/>
-      <c r="K146" s="107"/>
-      <c r="L146" s="107"/>
+      <c r="B146" s="105"/>
+      <c r="C146" s="105"/>
+      <c r="D146" s="105"/>
+      <c r="E146" s="105"/>
+      <c r="F146" s="105"/>
+      <c r="G146" s="105"/>
+      <c r="H146" s="105"/>
+      <c r="I146" s="105"/>
+      <c r="J146" s="105"/>
+      <c r="K146" s="105"/>
+      <c r="L146" s="105"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A147" s="113" t="s">
+      <c r="A147" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="B147" s="113" t="s">
+      <c r="B147" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="C147" s="108" t="s">
+      <c r="C147" s="127" t="s">
         <v>347</v>
       </c>
-      <c r="D147" s="116" t="s">
+      <c r="D147" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="E147" s="93" t="s">
+      <c r="E147" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="F147" s="93"/>
-      <c r="G147" s="93"/>
-      <c r="H147" s="93"/>
-      <c r="I147" s="94" t="s">
+      <c r="F147" s="125"/>
+      <c r="G147" s="125"/>
+      <c r="H147" s="125"/>
+      <c r="I147" s="118" t="s">
         <v>349</v>
       </c>
-      <c r="J147" s="94"/>
-      <c r="K147" s="94"/>
-      <c r="L147" s="94"/>
+      <c r="J147" s="118"/>
+      <c r="K147" s="118"/>
+      <c r="L147" s="118"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A148" s="114"/>
-      <c r="B148" s="114"/>
-      <c r="C148" s="109"/>
-      <c r="D148" s="117"/>
-      <c r="E148" s="95" t="s">
+      <c r="A148" s="97"/>
+      <c r="B148" s="97"/>
+      <c r="C148" s="99"/>
+      <c r="D148" s="116"/>
+      <c r="E148" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="F148" s="97"/>
-      <c r="G148" s="111" t="s">
+      <c r="F148" s="92"/>
+      <c r="G148" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H148" s="112"/>
-      <c r="I148" s="95" t="s">
+      <c r="H148" s="90"/>
+      <c r="I148" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="J148" s="97"/>
-      <c r="K148" s="111" t="s">
+      <c r="J148" s="92"/>
+      <c r="K148" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="L148" s="112"/>
+      <c r="L148" s="90"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A149" s="115"/>
-      <c r="B149" s="115" t="s">
+      <c r="A149" s="98"/>
+      <c r="B149" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C149" s="110"/>
-      <c r="D149" s="118"/>
+      <c r="C149" s="100"/>
+      <c r="D149" s="117"/>
       <c r="E149" s="64" t="s">
         <v>351</v>
       </c>
@@ -9384,61 +9384,61 @@
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A152" s="106" t="s">
+      <c r="A152" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="B152" s="107"/>
-      <c r="C152" s="107"/>
-      <c r="D152" s="107"/>
-      <c r="E152" s="107"/>
-      <c r="F152" s="107"/>
-      <c r="G152" s="107"/>
-      <c r="H152" s="107"/>
-      <c r="I152" s="107"/>
-      <c r="J152" s="107"/>
+      <c r="B152" s="105"/>
+      <c r="C152" s="105"/>
+      <c r="D152" s="105"/>
+      <c r="E152" s="105"/>
+      <c r="F152" s="105"/>
+      <c r="G152" s="105"/>
+      <c r="H152" s="105"/>
+      <c r="I152" s="105"/>
+      <c r="J152" s="105"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="84"/>
       <c r="B153" s="85"/>
-      <c r="C153" s="90" t="s">
+      <c r="C153" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="D153" s="90"/>
-      <c r="E153" s="90"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="90"/>
-      <c r="H153" s="90"/>
-      <c r="I153" s="90"/>
-      <c r="J153" s="90"/>
-      <c r="K153" s="90"/>
+      <c r="D153" s="126"/>
+      <c r="E153" s="126"/>
+      <c r="F153" s="126"/>
+      <c r="G153" s="126"/>
+      <c r="H153" s="126"/>
+      <c r="I153" s="126"/>
+      <c r="J153" s="126"/>
+      <c r="K153" s="126"/>
       <c r="Z153" s="69"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A154" s="91" t="s">
+      <c r="A154" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="B154" s="91" t="s">
+      <c r="B154" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="C154" s="95" t="s">
+      <c r="C154" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="D154" s="96"/>
-      <c r="E154" s="96"/>
-      <c r="F154" s="97"/>
-      <c r="G154" s="111" t="s">
+      <c r="D154" s="101"/>
+      <c r="E154" s="101"/>
+      <c r="F154" s="92"/>
+      <c r="G154" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H154" s="127"/>
-      <c r="I154" s="127"/>
-      <c r="J154" s="112"/>
-      <c r="K154" s="88" t="s">
+      <c r="H154" s="89"/>
+      <c r="I154" s="89"/>
+      <c r="J154" s="90"/>
+      <c r="K154" s="102" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A155" s="92"/>
-      <c r="B155" s="92"/>
+      <c r="A155" s="94"/>
+      <c r="B155" s="94"/>
       <c r="C155" s="64" t="s">
         <v>339</v>
       </c>
@@ -9463,7 +9463,7 @@
       <c r="J155" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K155" s="89"/>
+      <c r="K155" s="103"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" s="55" t="s">
@@ -9505,20 +9505,20 @@
       <c r="K156" s="66"/>
     </row>
     <row r="158" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="104" t="s">
+      <c r="A158" s="95" t="s">
         <v>424</v>
       </c>
-      <c r="B158" s="105"/>
-      <c r="C158" s="105"/>
-      <c r="D158" s="105"/>
-      <c r="E158" s="105"/>
-      <c r="F158" s="105"/>
+      <c r="B158" s="96"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="96"/>
+      <c r="F158" s="96"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A159" s="114" t="s">
+      <c r="A159" s="97" t="s">
         <v>333</v>
       </c>
-      <c r="B159" s="109" t="s">
+      <c r="B159" s="99" t="s">
         <v>334</v>
       </c>
       <c r="C159" s="87" t="s">
@@ -9532,33 +9532,29 @@
       <c r="I159" s="87"/>
       <c r="J159" s="87"/>
       <c r="K159" s="87"/>
-      <c r="L159" s="87"/>
     </row>
     <row r="160" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="114"/>
-      <c r="B160" s="109"/>
-      <c r="C160" s="95" t="s">
+      <c r="A160" s="97"/>
+      <c r="B160" s="99"/>
+      <c r="C160" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="D160" s="96"/>
-      <c r="E160" s="96"/>
-      <c r="F160" s="97"/>
-      <c r="G160" s="111" t="s">
+      <c r="D160" s="101"/>
+      <c r="E160" s="101"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H160" s="127"/>
-      <c r="I160" s="127"/>
-      <c r="J160" s="112"/>
-      <c r="K160" s="88" t="s">
-        <v>357</v>
-      </c>
-      <c r="L160" s="88" t="s">
+      <c r="H160" s="89"/>
+      <c r="I160" s="89"/>
+      <c r="J160" s="90"/>
+      <c r="K160" s="102" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A161" s="115"/>
-      <c r="B161" s="110"/>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161" s="98"/>
+      <c r="B161" s="100"/>
       <c r="C161" s="64" t="s">
         <v>339</v>
       </c>
@@ -9583,10 +9579,9 @@
       <c r="J161" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K161" s="89"/>
-      <c r="L161" s="89"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K161" s="103"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="70" t="s">
         <v>343</v>
       </c>
@@ -9612,15 +9607,11 @@
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
       <c r="K162" s="30" t="str">
-        <f>TEXT(12.2,"0.00")</f>
-        <v>12.20</v>
-      </c>
-      <c r="L162" s="30" t="str">
         <f>TEXT(-93.52,"0.00")</f>
         <v>-93.52</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="70" t="s">
         <v>343</v>
       </c>
@@ -9658,22 +9649,18 @@
         <v>86.55</v>
       </c>
       <c r="K163" s="30" t="str">
-        <f>TEXT(-92.61,"0.00")</f>
-        <v>-92.61</v>
-      </c>
-      <c r="L163" s="30" t="str">
         <f>TEXT(-93.52,"0.00")</f>
         <v>-93.52</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="44" t="s">
         <v>431</v>
       </c>
       <c r="B164" s="45"/>
       <c r="C164" s="45"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="42" t="s">
         <v>432</v>
       </c>
@@ -9684,7 +9671,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="73" t="s">
         <v>435</v>
       </c>
@@ -9695,7 +9682,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="73" t="s">
         <v>437</v>
       </c>
@@ -9707,57 +9694,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="G154:J154"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C160:F160"/>
-    <mergeCell ref="G160:J160"/>
-    <mergeCell ref="K160:K161"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="G111:J111"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="A152:J152"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="AG88:AL88"/>
-    <mergeCell ref="T88:V88"/>
-    <mergeCell ref="W88:X88"/>
-    <mergeCell ref="Z88:AF88"/>
-    <mergeCell ref="A126:R126"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="A103:L103"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="A119:R119"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="L160:L161"/>
+  <mergeCells count="64">
     <mergeCell ref="C110:K110"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="E147:H147"/>
@@ -9773,6 +9710,55 @@
     <mergeCell ref="B147:B149"/>
     <mergeCell ref="C147:C149"/>
     <mergeCell ref="D147:D149"/>
+    <mergeCell ref="A126:R126"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="A103:L103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="A119:R119"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="AG88:AL88"/>
+    <mergeCell ref="T88:V88"/>
+    <mergeCell ref="W88:X88"/>
+    <mergeCell ref="Z88:AF88"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C160:F160"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="K160:K161"/>
+    <mergeCell ref="G154:J154"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="A152:J152"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C62 NTB135:NTB136 NJF135:NJF136 MZJ135:MZJ136 MPN135:MPN136 MFR135:MFR136 LVV135:LVV136 LLZ135:LLZ136 KSH135:KSH136 KIL135:KIL136 JYP135:JYP136 JOT135:JOT136 JEX135:JEX136 IVB135:IVB136 ILF135:ILF136 IBJ135:IBJ136 HRN135:HRN136 HHR135:HHR136 GXV135:GXV136 GNZ135:GNZ136 GED135:GED136 FUH135:FUH136 FKL135:FKL136 LCD135:LCD136 FAP135:FAP136 EQT135:EQT136 EGX135:EGX136 DXB135:DXB136 DNF135:DNF136 DDJ135:DDJ136 CTN135:CTN136 CJR135:CJR136 BZV135:BZV136 BPZ135:BPZ136 BGD135:BGD136 AWH135:AWH136 AML135:AML136 ACP135:ACP136 ST135:ST136 IX135:IX136 WVJ135:WVJ136 WLN135:WLN136 WBR135:WBR136 VRV135:VRV136 VHZ135:VHZ136 UYD135:UYD136 UOH135:UOH136 UEL135:UEL136 TUP135:TUP136 TKT135:TKT136 TAX135:TAX136 SRB135:SRB136 SHF135:SHF136 RXJ135:RXJ136 RNN135:RNN136 RDR135:RDR136 QTV135:QTV136 QJZ135:QJZ136 QAD135:QAD136 PQH135:PQH136 PGL135:PGL136 OWP135:OWP136 OMT135:OMT136 MPN121:MPN124 MZJ121:MZJ124 NJF121:NJF124 NTB121:NTB124 OCX121:OCX124 OMT121:OMT124 OWP121:OWP124 PGL121:PGL124 PQH121:PQH124 QAD121:QAD124 QJZ121:QJZ124 QTV121:QTV124 RDR121:RDR124 RNN121:RNN124 RXJ121:RXJ124 SHF121:SHF124 SRB121:SRB124 TAX121:TAX124 TKT121:TKT124 TUP121:TUP124 UEL121:UEL124 UOH121:UOH124 UYD121:UYD124 VHZ121:VHZ124 VRV121:VRV124 WBR121:WBR124 WLN121:WLN124 WVJ121:WVJ124 IX121:IX124 ST121:ST124 ACP121:ACP124 AML121:AML124 AWH121:AWH124 BGD121:BGD124 BPZ121:BPZ124 BZV121:BZV124 CJR121:CJR124 CTN121:CTN124 DDJ121:DDJ124 DNF121:DNF124 DXB121:DXB124 EGX121:EGX124 EQT121:EQT124 FAP121:FAP124 LCD121:LCD124 FKL121:FKL124 FUH121:FUH124 GED121:GED124 GNZ121:GNZ124 GXV121:GXV124 HHR121:HHR124 HRN121:HRN124 IBJ121:IBJ124 ILF121:ILF124 IVB121:IVB124 JEX121:JEX124 JOT121:JOT124 JYP121:JYP124 KIL121:KIL124 KSH121:KSH124 LLZ121:LLZ124 LVV121:LVV124 MFR121:MFR124 MZJ128:MZJ131 NJF128:NJF131 NTB128:NTB131 OCX128:OCX131 OMT128:OMT131 OWP128:OWP131 PGL128:PGL131 PQH128:PQH131 QAD128:QAD131 QJZ128:QJZ131 QTV128:QTV131 RDR128:RDR131 RNN128:RNN131 RXJ128:RXJ131 SHF128:SHF131 SRB128:SRB131 TAX128:TAX131 TKT128:TKT131 TUP128:TUP131 UEL128:UEL131 UOH128:UOH131 UYD128:UYD131 VHZ128:VHZ131 VRV128:VRV131 WBR128:WBR131 WLN128:WLN131 WVJ128:WVJ131 IX128:IX131 ST128:ST131 ACP128:ACP131 AML128:AML131 AWH128:AWH131 BGD128:BGD131 BPZ128:BPZ131 BZV128:BZV131 CJR128:CJR131 CTN128:CTN131 DDJ128:DDJ131 DNF128:DNF131 DXB128:DXB131 EGX128:EGX131 EQT128:EQT131 FAP128:FAP131 LCD128:LCD131 FKL128:FKL131 FUH128:FUH131 GED128:GED131 GNZ128:GNZ131 GXV128:GXV131 HHR128:HHR131 HRN128:HRN131 IBJ128:IBJ131 ILF128:ILF131 IVB128:IVB131 JEX128:JEX131 JOT128:JOT131 JYP128:JYP131 KIL128:KIL131 KSH128:KSH131 LLZ128:LLZ131 LVV128:LVV131 MFR128:MFR131 OCX135:OCX136 MPN128:MPN131">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39772.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39772.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="478">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1428,6 +1428,102 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4593872799","modelId":"7158925744","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1160014286","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-31","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600409","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600410","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600411","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8536324124","dealId":"8248689673","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4018600358","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4018600359","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4018600360","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4010014230","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8248689673","modelId":"8536324124","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4010014242","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600358","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600359","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600360","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8536324124","dealId":"8248689673","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4018600380","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4018600381","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4018600382","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4010014242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8248689673","modelId":"8536324124","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4010014243","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600380","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600381","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600382","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8536324124","dealId":"8248689673","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4018600361","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4018600362","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4018600363","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4010014231","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8248689673","modelId":"8536324124","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4010014244","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600361","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600362","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600363","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8536324124","dealId":"8248689673","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4018600386","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4018600387","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4018600388","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4010014244","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8248689673","modelId":"8536324124","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4010014245","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600386","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600387","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600388","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2754782319","dealId":"9353319377","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2108600752","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2108600753","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2108600754","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"2100014438","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9353319377","modelId":"2754782319","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2100014450","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600752","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600753","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600754","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2754782319","dealId":"9353319377","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2108600774","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2108600775","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2108600776","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"2100014450","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9353319377","modelId":"2754782319","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2100014451","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600774","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600775","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600776","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2754782319","dealId":"9353319377","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2108600755","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2108600756","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2108600757","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"2100014439","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9353319377","modelId":"2754782319","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2100014452","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600755","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600756","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600757","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2754782319","dealId":"9353319377","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2108600780","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2108600781","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2108600782","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"2100014452","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9353319377","modelId":"2754782319","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2100014453","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600780","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600781","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600782","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6637322207","dealId":"6489960752","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5538601239","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5538601240","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5538601241","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5530014693","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6489960752","modelId":"6637322207","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5530014705","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601239","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601240","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601241","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6637322207","dealId":"6489960752","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5538601261","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5538601262","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5538601263","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5530014705","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6489960752","modelId":"6637322207","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5530014706","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601261","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601262","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601263","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6637322207","dealId":"6489960752","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5538601242","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5538601243","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5538601244","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5530014694","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6489960752","modelId":"6637322207","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5530014707","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601242","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601243","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601244","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6637322207","dealId":"6489960752","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5538601267","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5538601268","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5538601269","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5530014707","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6489960752","modelId":"6637322207","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5530014708","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601267","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601268","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601269","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5977988242","dealId":"7661891596","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1618600311","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1618600312","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1618600313","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1610014199","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7661891596","modelId":"5977988242","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1610014211","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600311","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600312","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600313","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5977988242","dealId":"7661891596","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1618600333","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1618600334","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1618600335","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1610014211","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7661891596","modelId":"5977988242","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1610014212","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600333","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600334","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600335","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5977988242","dealId":"7661891596","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1618600314","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1618600315","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1618600316","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1610014200","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7661891596","modelId":"5977988242","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1610014213","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600314","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600315","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600316","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5977988242","dealId":"7661891596","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1618600339","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1618600340","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1618600341","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1610014213","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7661891596","modelId":"5977988242","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1610014214","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600339","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600340","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600341","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -2046,125 +2142,125 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2458,19 +2554,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E139" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.7265625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="94.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="11" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.26953125" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="94.54296875" collapsed="true"/>
+    <col min="3" max="11" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="39.26953125" collapsed="true"/>
+    <col min="14" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -3329,11 +3425,11 @@
       <c r="I20" s="14"/>
     </row>
     <row r="22" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
     </row>
     <row r="23" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
@@ -3387,24 +3483,24 @@
       </c>
     </row>
     <row r="27" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
       <c r="BM27" s="16"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="16"/>
@@ -6281,12 +6377,12 @@
       <c r="DM60" s="16"/>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="122" t="s">
         <v>255</v>
       </c>
-      <c r="B62" s="111"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="112"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="124"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6324,17 +6420,17 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="110" t="s">
+      <c r="A66" s="122" t="s">
         <v>237</v>
       </c>
-      <c r="B66" s="111"/>
-      <c r="C66" s="111"/>
-      <c r="D66" s="111"/>
-      <c r="E66" s="111"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="112"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="123"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="124"/>
     </row>
     <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
@@ -6408,11 +6504,11 @@
       <c r="I68" s="31"/>
       <c r="J68" s="41" t="str">
         <f t="shared" ref="J68:J79" ca="1" si="0">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K68" s="41" t="str">
         <f t="shared" ref="K68:K79" ca="1" si="1">TEXT(TODAY()-1,"MM-DD-YYYY")</f>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>168</v>
@@ -6450,11 +6546,11 @@
       <c r="I69" s="31"/>
       <c r="J69" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K69" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>168</v>
@@ -6492,11 +6588,11 @@
       <c r="I70" s="31"/>
       <c r="J70" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K70" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L70" s="32" t="s">
         <v>168</v>
@@ -6534,11 +6630,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K71" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6576,11 +6672,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K72" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -6618,11 +6714,11 @@
       <c r="I73" s="31"/>
       <c r="J73" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K73" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -6660,11 +6756,11 @@
       <c r="I74" s="31"/>
       <c r="J74" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K74" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -6702,11 +6798,11 @@
       <c r="I75" s="31"/>
       <c r="J75" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K75" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>168</v>
@@ -6744,11 +6840,11 @@
       <c r="I76" s="31"/>
       <c r="J76" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K76" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L76" s="32" t="s">
         <v>168</v>
@@ -6786,11 +6882,11 @@
       <c r="I77" s="31"/>
       <c r="J77" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K77" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L77" s="32" t="s">
         <v>168</v>
@@ -6828,11 +6924,11 @@
       <c r="I78" s="31"/>
       <c r="J78" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K78" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L78" s="32" t="s">
         <v>168</v>
@@ -6870,11 +6966,11 @@
       <c r="I79" s="31"/>
       <c r="J79" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-09-2023</v>
+        <v>07-02-2023</v>
       </c>
       <c r="K79" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>08-07-2023</v>
+        <v>07-31-2023</v>
       </c>
       <c r="L79" s="32" t="s">
         <v>168</v>
@@ -6888,27 +6984,27 @@
       </c>
     </row>
     <row r="81" spans="1:78" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="113" t="s">
+      <c r="A81" s="125" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="113"/>
-      <c r="C81" s="113"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="113"/>
-      <c r="F81" s="113"/>
-      <c r="G81" s="113"/>
-      <c r="H81" s="113"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="113"/>
-      <c r="K81" s="113"/>
+      <c r="B81" s="125"/>
+      <c r="C81" s="125"/>
+      <c r="D81" s="125"/>
+      <c r="E81" s="125"/>
+      <c r="F81" s="125"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="125"/>
+      <c r="I81" s="125"/>
+      <c r="J81" s="125"/>
+      <c r="K81" s="125"/>
     </row>
     <row r="83" spans="1:78" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="114" t="s">
+      <c r="A83" s="126" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="114"/>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
+      <c r="B83" s="126"/>
+      <c r="C83" s="126"/>
+      <c r="D83" s="126"/>
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="s">
@@ -7037,33 +7133,33 @@
       <c r="S88" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="T88" s="122" t="s">
+      <c r="T88" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="U88" s="123"/>
-      <c r="V88" s="124"/>
-      <c r="W88" s="122" t="s">
+      <c r="U88" s="102"/>
+      <c r="V88" s="103"/>
+      <c r="W88" s="101" t="s">
         <v>287</v>
       </c>
-      <c r="X88" s="124"/>
+      <c r="X88" s="103"/>
       <c r="Y88" s="48"/>
-      <c r="Z88" s="119" t="s">
+      <c r="Z88" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="AA88" s="120"/>
-      <c r="AB88" s="120"/>
-      <c r="AC88" s="120"/>
-      <c r="AD88" s="120"/>
-      <c r="AE88" s="120"/>
-      <c r="AF88" s="121"/>
-      <c r="AG88" s="119" t="s">
+      <c r="AA88" s="99"/>
+      <c r="AB88" s="99"/>
+      <c r="AC88" s="99"/>
+      <c r="AD88" s="99"/>
+      <c r="AE88" s="99"/>
+      <c r="AF88" s="100"/>
+      <c r="AG88" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="AH88" s="120"/>
-      <c r="AI88" s="120"/>
-      <c r="AJ88" s="120"/>
-      <c r="AK88" s="120"/>
-      <c r="AL88" s="121"/>
+      <c r="AH88" s="99"/>
+      <c r="AI88" s="99"/>
+      <c r="AJ88" s="99"/>
+      <c r="AK88" s="99"/>
+      <c r="AL88" s="100"/>
       <c r="AM88" s="49"/>
       <c r="AN88" s="50"/>
       <c r="AO88" s="50"/>
@@ -7249,11 +7345,11 @@
       </c>
       <c r="G90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-01</v>
       </c>
       <c r="H90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-01</v>
       </c>
       <c r="I90" s="55"/>
       <c r="J90" s="55">
@@ -7500,7 +7596,7 @@
       </c>
       <c r="C94" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-15</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>153</v>
@@ -7559,7 +7655,7 @@
       </c>
       <c r="C95" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-22</v>
+        <v>2023-09-15</v>
       </c>
       <c r="D95" s="33" t="s">
         <v>153</v>
@@ -7610,66 +7706,66 @@
       <c r="BZ95" s="51"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A97" s="104" t="s">
+      <c r="A97" s="106" t="s">
         <v>356</v>
       </c>
-      <c r="B97" s="105"/>
-      <c r="C97" s="105"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="105"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="107"/>
+      <c r="D97" s="107"/>
+      <c r="E97" s="107"/>
+      <c r="F97" s="107"/>
+      <c r="G97" s="107"/>
+      <c r="H97" s="107"/>
+      <c r="I97" s="107"/>
+      <c r="J97" s="107"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="62"/>
       <c r="B98" s="63"/>
-      <c r="C98" s="126" t="s">
+      <c r="C98" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="D98" s="126"/>
-      <c r="E98" s="126"/>
-      <c r="F98" s="126"/>
-      <c r="G98" s="126"/>
-      <c r="H98" s="126"/>
-      <c r="I98" s="126"/>
-      <c r="J98" s="126"/>
-      <c r="K98" s="126"/>
+      <c r="D98" s="90"/>
+      <c r="E98" s="90"/>
+      <c r="F98" s="90"/>
+      <c r="G98" s="90"/>
+      <c r="H98" s="90"/>
+      <c r="I98" s="90"/>
+      <c r="J98" s="90"/>
+      <c r="K98" s="90"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="93" t="s">
+      <c r="A99" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="B99" s="93" t="s">
+      <c r="B99" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="C99" s="91" t="s">
+      <c r="C99" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="D99" s="101"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="88" t="s">
+      <c r="D99" s="96"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="H99" s="89"/>
-      <c r="I99" s="89"/>
-      <c r="J99" s="90"/>
-      <c r="K99" s="93" t="s">
+      <c r="H99" s="127"/>
+      <c r="I99" s="127"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="91" t="s">
         <v>337</v>
       </c>
-      <c r="L99" s="93" t="s">
+      <c r="L99" s="91" t="s">
         <v>338</v>
       </c>
-      <c r="R99" s="93" t="s">
+      <c r="R99" s="91" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="94"/>
-      <c r="B100" s="94"/>
+      <c r="A100" s="92"/>
+      <c r="B100" s="92"/>
       <c r="C100" s="64" t="s">
         <v>339</v>
       </c>
@@ -7694,9 +7790,9 @@
       <c r="J100" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K100" s="94"/>
-      <c r="L100" s="94"/>
-      <c r="R100" s="94"/>
+      <c r="K100" s="92"/>
+      <c r="L100" s="92"/>
+      <c r="R100" s="92"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="40" t="s">
@@ -7747,76 +7843,76 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="104" t="s">
+      <c r="A103" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="B103" s="105"/>
-      <c r="C103" s="105"/>
-      <c r="D103" s="105"/>
-      <c r="E103" s="105"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="105"/>
-      <c r="I103" s="105"/>
-      <c r="J103" s="105"/>
-      <c r="K103" s="105"/>
-      <c r="L103" s="105"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="107"/>
+      <c r="H103" s="107"/>
+      <c r="I103" s="107"/>
+      <c r="J103" s="107"/>
+      <c r="K103" s="107"/>
+      <c r="L103" s="107"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A104" s="106" t="s">
+      <c r="A104" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="106" t="s">
+      <c r="B104" s="113" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="127" t="s">
+      <c r="C104" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="D104" s="115" t="s">
+      <c r="D104" s="116" t="s">
         <v>348</v>
       </c>
-      <c r="E104" s="125" t="s">
+      <c r="E104" s="93" t="s">
         <v>332</v>
       </c>
-      <c r="F104" s="125"/>
-      <c r="G104" s="125"/>
-      <c r="H104" s="125"/>
-      <c r="I104" s="118" t="s">
+      <c r="F104" s="93"/>
+      <c r="G104" s="93"/>
+      <c r="H104" s="93"/>
+      <c r="I104" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="J104" s="118"/>
-      <c r="K104" s="118"/>
-      <c r="L104" s="118"/>
+      <c r="J104" s="94"/>
+      <c r="K104" s="94"/>
+      <c r="L104" s="94"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="97"/>
-      <c r="B105" s="97"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="116"/>
-      <c r="E105" s="91" t="s">
+      <c r="A105" s="114"/>
+      <c r="B105" s="114"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="F105" s="92"/>
-      <c r="G105" s="88" t="s">
+      <c r="F105" s="97"/>
+      <c r="G105" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="H105" s="90"/>
-      <c r="I105" s="91" t="s">
+      <c r="H105" s="112"/>
+      <c r="I105" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="J105" s="92"/>
-      <c r="K105" s="88" t="s">
+      <c r="J105" s="97"/>
+      <c r="K105" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="L105" s="90"/>
+      <c r="L105" s="112"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="98"/>
-      <c r="B106" s="98" t="s">
+      <c r="A106" s="115"/>
+      <c r="B106" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="C106" s="100"/>
-      <c r="D106" s="117"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="118"/>
       <c r="E106" s="64" t="s">
         <v>351</v>
       </c>
@@ -7891,61 +7987,61 @@
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A109" s="104" t="s">
+      <c r="A109" s="106" t="s">
         <v>356</v>
       </c>
-      <c r="B109" s="105"/>
-      <c r="C109" s="105"/>
-      <c r="D109" s="105"/>
-      <c r="E109" s="105"/>
-      <c r="F109" s="105"/>
-      <c r="G109" s="105"/>
-      <c r="H109" s="105"/>
-      <c r="I109" s="105"/>
-      <c r="J109" s="105"/>
+      <c r="B109" s="107"/>
+      <c r="C109" s="107"/>
+      <c r="D109" s="107"/>
+      <c r="E109" s="107"/>
+      <c r="F109" s="107"/>
+      <c r="G109" s="107"/>
+      <c r="H109" s="107"/>
+      <c r="I109" s="107"/>
+      <c r="J109" s="107"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="62"/>
       <c r="B110" s="63"/>
-      <c r="C110" s="126" t="s">
+      <c r="C110" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="126"/>
-      <c r="E110" s="126"/>
-      <c r="F110" s="126"/>
-      <c r="G110" s="126"/>
-      <c r="H110" s="126"/>
-      <c r="I110" s="126"/>
-      <c r="J110" s="126"/>
-      <c r="K110" s="126"/>
+      <c r="D110" s="90"/>
+      <c r="E110" s="90"/>
+      <c r="F110" s="90"/>
+      <c r="G110" s="90"/>
+      <c r="H110" s="90"/>
+      <c r="I110" s="90"/>
+      <c r="J110" s="90"/>
+      <c r="K110" s="90"/>
       <c r="Z110" s="69"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A111" s="93" t="s">
+      <c r="A111" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="B111" s="93" t="s">
+      <c r="B111" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="C111" s="91" t="s">
+      <c r="C111" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="D111" s="101"/>
-      <c r="E111" s="101"/>
-      <c r="F111" s="92"/>
-      <c r="G111" s="88" t="s">
+      <c r="D111" s="96"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="97"/>
+      <c r="G111" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="H111" s="89"/>
-      <c r="I111" s="89"/>
-      <c r="J111" s="90"/>
-      <c r="K111" s="102" t="s">
+      <c r="H111" s="127"/>
+      <c r="I111" s="127"/>
+      <c r="J111" s="112"/>
+      <c r="K111" s="88" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A112" s="94"/>
-      <c r="B112" s="94"/>
+      <c r="A112" s="92"/>
+      <c r="B112" s="92"/>
       <c r="C112" s="64" t="s">
         <v>339</v>
       </c>
@@ -7970,7 +8066,7 @@
       <c r="J112" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K112" s="103"/>
+      <c r="K112" s="89"/>
     </row>
     <row r="113" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A113" s="55" t="s">
@@ -8078,7 +8174,7 @@
       <c r="I117" s="72"/>
       <c r="J117" s="73">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45139</v>
       </c>
       <c r="K117" s="73">
         <v>234</v>
@@ -8088,26 +8184,26 @@
       </c>
     </row>
     <row r="119" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A119" s="95" t="s">
+      <c r="A119" s="104" t="s">
         <v>404</v>
       </c>
-      <c r="B119" s="96"/>
-      <c r="C119" s="96"/>
-      <c r="D119" s="96"/>
-      <c r="E119" s="96"/>
-      <c r="F119" s="96"/>
-      <c r="G119" s="96"/>
-      <c r="H119" s="96"/>
-      <c r="I119" s="96"/>
-      <c r="J119" s="96"/>
-      <c r="K119" s="96"/>
-      <c r="L119" s="96"/>
-      <c r="M119" s="96"/>
-      <c r="N119" s="96"/>
-      <c r="O119" s="96"/>
-      <c r="P119" s="96"/>
-      <c r="Q119" s="96"/>
-      <c r="R119" s="96"/>
+      <c r="B119" s="105"/>
+      <c r="C119" s="105"/>
+      <c r="D119" s="105"/>
+      <c r="E119" s="105"/>
+      <c r="F119" s="105"/>
+      <c r="G119" s="105"/>
+      <c r="H119" s="105"/>
+      <c r="I119" s="105"/>
+      <c r="J119" s="105"/>
+      <c r="K119" s="105"/>
+      <c r="L119" s="105"/>
+      <c r="M119" s="105"/>
+      <c r="N119" s="105"/>
+      <c r="O119" s="105"/>
+      <c r="P119" s="105"/>
+      <c r="Q119" s="105"/>
+      <c r="R119" s="105"/>
       <c r="S119" s="79"/>
       <c r="T119" s="79"/>
       <c r="U119" s="79"/>
@@ -8207,7 +8303,7 @@
       </c>
       <c r="D121" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-01</v>
       </c>
       <c r="E121" s="78"/>
       <c r="F121" s="78" t="s">
@@ -8273,7 +8369,7 @@
       </c>
       <c r="D122" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-01</v>
       </c>
       <c r="E122" s="78"/>
       <c r="F122" s="78" t="s">
@@ -8341,7 +8437,7 @@
       </c>
       <c r="D123" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-01</v>
       </c>
       <c r="E123" s="76"/>
       <c r="F123" s="76" t="s">
@@ -8391,10 +8487,10 @@
       </c>
       <c r="Z123" s="76"/>
       <c r="AU123" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="AV123" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
     </row>
     <row r="124" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8407,7 +8503,7 @@
       </c>
       <c r="D124" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-07</v>
+        <v>2023-08-31</v>
       </c>
       <c r="E124" s="81"/>
       <c r="F124" s="81" t="s">
@@ -8457,33 +8553,33 @@
       </c>
       <c r="Z124" s="81"/>
       <c r="AU124" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="AV124" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
     </row>
     <row r="126" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A126" s="95" t="s">
+      <c r="A126" s="104" t="s">
         <v>403</v>
       </c>
-      <c r="B126" s="96"/>
-      <c r="C126" s="96"/>
-      <c r="D126" s="96"/>
-      <c r="E126" s="96"/>
-      <c r="F126" s="96"/>
-      <c r="G126" s="96"/>
-      <c r="H126" s="96"/>
-      <c r="I126" s="96"/>
-      <c r="J126" s="96"/>
-      <c r="K126" s="96"/>
-      <c r="L126" s="96"/>
-      <c r="M126" s="96"/>
-      <c r="N126" s="96"/>
-      <c r="O126" s="96"/>
-      <c r="P126" s="96"/>
-      <c r="Q126" s="96"/>
-      <c r="R126" s="96"/>
+      <c r="B126" s="105"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="105"/>
+      <c r="E126" s="105"/>
+      <c r="F126" s="105"/>
+      <c r="G126" s="105"/>
+      <c r="H126" s="105"/>
+      <c r="I126" s="105"/>
+      <c r="J126" s="105"/>
+      <c r="K126" s="105"/>
+      <c r="L126" s="105"/>
+      <c r="M126" s="105"/>
+      <c r="N126" s="105"/>
+      <c r="O126" s="105"/>
+      <c r="P126" s="105"/>
+      <c r="Q126" s="105"/>
+      <c r="R126" s="105"/>
       <c r="S126" s="80"/>
       <c r="T126" s="80"/>
       <c r="U126" s="80"/>
@@ -8583,7 +8679,7 @@
       </c>
       <c r="D128" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-01</v>
       </c>
       <c r="E128" s="78"/>
       <c r="F128" s="78" t="s">
@@ -8649,7 +8745,7 @@
       </c>
       <c r="D129" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-01</v>
       </c>
       <c r="E129" s="78"/>
       <c r="F129" s="78" t="s">
@@ -8717,7 +8813,7 @@
       </c>
       <c r="D130" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-01</v>
       </c>
       <c r="E130" s="76"/>
       <c r="F130" s="76" t="s">
@@ -8769,10 +8865,10 @@
       </c>
       <c r="Z130" s="76"/>
       <c r="AU130" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="AV130" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
     </row>
     <row r="131" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8785,7 +8881,7 @@
       </c>
       <c r="D131" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-09-07</v>
+        <v>2023-08-31</v>
       </c>
       <c r="E131" s="81"/>
       <c r="F131" s="81" t="s">
@@ -8837,33 +8933,33 @@
       </c>
       <c r="Z131" s="81"/>
       <c r="AU131" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="AV131" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A133" s="95" t="s">
+      <c r="A133" s="104" t="s">
         <v>405</v>
       </c>
-      <c r="B133" s="96"/>
-      <c r="C133" s="96"/>
-      <c r="D133" s="96"/>
-      <c r="E133" s="96"/>
-      <c r="F133" s="96"/>
-      <c r="G133" s="96"/>
-      <c r="H133" s="96"/>
-      <c r="I133" s="96"/>
-      <c r="J133" s="96"/>
-      <c r="K133" s="96"/>
-      <c r="L133" s="96"/>
-      <c r="M133" s="96"/>
-      <c r="N133" s="96"/>
-      <c r="O133" s="96"/>
-      <c r="P133" s="96"/>
-      <c r="Q133" s="96"/>
-      <c r="R133" s="96"/>
+      <c r="B133" s="105"/>
+      <c r="C133" s="105"/>
+      <c r="D133" s="105"/>
+      <c r="E133" s="105"/>
+      <c r="F133" s="105"/>
+      <c r="G133" s="105"/>
+      <c r="H133" s="105"/>
+      <c r="I133" s="105"/>
+      <c r="J133" s="105"/>
+      <c r="K133" s="105"/>
+      <c r="L133" s="105"/>
+      <c r="M133" s="105"/>
+      <c r="N133" s="105"/>
+      <c r="O133" s="105"/>
+      <c r="P133" s="105"/>
+      <c r="Q133" s="105"/>
+      <c r="R133" s="105"/>
       <c r="S133" s="83"/>
       <c r="T133" s="83"/>
       <c r="U133" s="83"/>
@@ -8963,7 +9059,7 @@
       </c>
       <c r="D135" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-01</v>
       </c>
       <c r="E135" s="78"/>
       <c r="F135" s="78" t="str">
@@ -9029,7 +9125,7 @@
       </c>
       <c r="D136" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-08</v>
+        <v>2023-08-01</v>
       </c>
       <c r="E136" s="78"/>
       <c r="F136" s="78" t="str">
@@ -9154,7 +9250,7 @@
       <c r="I140" s="72"/>
       <c r="J140" s="73">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45139</v>
       </c>
       <c r="K140" s="73">
         <v>234</v>
@@ -9230,7 +9326,7 @@
       <c r="I144" s="72"/>
       <c r="J144" s="73">
         <f ca="1">TODAY()</f>
-        <v>45146</v>
+        <v>45139</v>
       </c>
       <c r="K144" s="73">
         <v>234</v>
@@ -9240,76 +9336,76 @@
       </c>
     </row>
     <row r="146" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="104" t="s">
+      <c r="A146" s="106" t="s">
         <v>345</v>
       </c>
-      <c r="B146" s="105"/>
-      <c r="C146" s="105"/>
-      <c r="D146" s="105"/>
-      <c r="E146" s="105"/>
-      <c r="F146" s="105"/>
-      <c r="G146" s="105"/>
-      <c r="H146" s="105"/>
-      <c r="I146" s="105"/>
-      <c r="J146" s="105"/>
-      <c r="K146" s="105"/>
-      <c r="L146" s="105"/>
+      <c r="B146" s="107"/>
+      <c r="C146" s="107"/>
+      <c r="D146" s="107"/>
+      <c r="E146" s="107"/>
+      <c r="F146" s="107"/>
+      <c r="G146" s="107"/>
+      <c r="H146" s="107"/>
+      <c r="I146" s="107"/>
+      <c r="J146" s="107"/>
+      <c r="K146" s="107"/>
+      <c r="L146" s="107"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A147" s="106" t="s">
+      <c r="A147" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="B147" s="106" t="s">
+      <c r="B147" s="113" t="s">
         <v>346</v>
       </c>
-      <c r="C147" s="127" t="s">
+      <c r="C147" s="108" t="s">
         <v>347</v>
       </c>
-      <c r="D147" s="115" t="s">
+      <c r="D147" s="116" t="s">
         <v>348</v>
       </c>
-      <c r="E147" s="125" t="s">
+      <c r="E147" s="93" t="s">
         <v>332</v>
       </c>
-      <c r="F147" s="125"/>
-      <c r="G147" s="125"/>
-      <c r="H147" s="125"/>
-      <c r="I147" s="118" t="s">
+      <c r="F147" s="93"/>
+      <c r="G147" s="93"/>
+      <c r="H147" s="93"/>
+      <c r="I147" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="J147" s="118"/>
-      <c r="K147" s="118"/>
-      <c r="L147" s="118"/>
+      <c r="J147" s="94"/>
+      <c r="K147" s="94"/>
+      <c r="L147" s="94"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A148" s="97"/>
-      <c r="B148" s="97"/>
-      <c r="C148" s="99"/>
-      <c r="D148" s="116"/>
-      <c r="E148" s="91" t="s">
+      <c r="A148" s="114"/>
+      <c r="B148" s="114"/>
+      <c r="C148" s="109"/>
+      <c r="D148" s="117"/>
+      <c r="E148" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="F148" s="92"/>
-      <c r="G148" s="88" t="s">
+      <c r="F148" s="97"/>
+      <c r="G148" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="H148" s="90"/>
-      <c r="I148" s="91" t="s">
+      <c r="H148" s="112"/>
+      <c r="I148" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="J148" s="92"/>
-      <c r="K148" s="88" t="s">
+      <c r="J148" s="97"/>
+      <c r="K148" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="L148" s="90"/>
+      <c r="L148" s="112"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A149" s="98"/>
-      <c r="B149" s="98" t="s">
+      <c r="A149" s="115"/>
+      <c r="B149" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="C149" s="100"/>
-      <c r="D149" s="117"/>
+      <c r="C149" s="110"/>
+      <c r="D149" s="118"/>
       <c r="E149" s="64" t="s">
         <v>351</v>
       </c>
@@ -9384,61 +9480,61 @@
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A152" s="104" t="s">
+      <c r="A152" s="106" t="s">
         <v>356</v>
       </c>
-      <c r="B152" s="105"/>
-      <c r="C152" s="105"/>
-      <c r="D152" s="105"/>
-      <c r="E152" s="105"/>
-      <c r="F152" s="105"/>
-      <c r="G152" s="105"/>
-      <c r="H152" s="105"/>
-      <c r="I152" s="105"/>
-      <c r="J152" s="105"/>
+      <c r="B152" s="107"/>
+      <c r="C152" s="107"/>
+      <c r="D152" s="107"/>
+      <c r="E152" s="107"/>
+      <c r="F152" s="107"/>
+      <c r="G152" s="107"/>
+      <c r="H152" s="107"/>
+      <c r="I152" s="107"/>
+      <c r="J152" s="107"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="84"/>
       <c r="B153" s="85"/>
-      <c r="C153" s="126" t="s">
+      <c r="C153" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="D153" s="126"/>
-      <c r="E153" s="126"/>
-      <c r="F153" s="126"/>
-      <c r="G153" s="126"/>
-      <c r="H153" s="126"/>
-      <c r="I153" s="126"/>
-      <c r="J153" s="126"/>
-      <c r="K153" s="126"/>
+      <c r="D153" s="90"/>
+      <c r="E153" s="90"/>
+      <c r="F153" s="90"/>
+      <c r="G153" s="90"/>
+      <c r="H153" s="90"/>
+      <c r="I153" s="90"/>
+      <c r="J153" s="90"/>
+      <c r="K153" s="90"/>
       <c r="Z153" s="69"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A154" s="93" t="s">
+      <c r="A154" s="91" t="s">
         <v>333</v>
       </c>
-      <c r="B154" s="93" t="s">
+      <c r="B154" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="C154" s="91" t="s">
+      <c r="C154" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="D154" s="101"/>
-      <c r="E154" s="101"/>
-      <c r="F154" s="92"/>
-      <c r="G154" s="88" t="s">
+      <c r="D154" s="96"/>
+      <c r="E154" s="96"/>
+      <c r="F154" s="97"/>
+      <c r="G154" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="H154" s="89"/>
-      <c r="I154" s="89"/>
-      <c r="J154" s="90"/>
-      <c r="K154" s="102" t="s">
+      <c r="H154" s="127"/>
+      <c r="I154" s="127"/>
+      <c r="J154" s="112"/>
+      <c r="K154" s="88" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A155" s="94"/>
-      <c r="B155" s="94"/>
+      <c r="A155" s="92"/>
+      <c r="B155" s="92"/>
       <c r="C155" s="64" t="s">
         <v>339</v>
       </c>
@@ -9463,7 +9559,7 @@
       <c r="J155" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K155" s="103"/>
+      <c r="K155" s="89"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" s="55" t="s">
@@ -9505,20 +9601,20 @@
       <c r="K156" s="66"/>
     </row>
     <row r="158" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="95" t="s">
+      <c r="A158" s="104" t="s">
         <v>424</v>
       </c>
-      <c r="B158" s="96"/>
-      <c r="C158" s="96"/>
-      <c r="D158" s="96"/>
-      <c r="E158" s="96"/>
-      <c r="F158" s="96"/>
+      <c r="B158" s="105"/>
+      <c r="C158" s="105"/>
+      <c r="D158" s="105"/>
+      <c r="E158" s="105"/>
+      <c r="F158" s="105"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A159" s="97" t="s">
+      <c r="A159" s="114" t="s">
         <v>333</v>
       </c>
-      <c r="B159" s="99" t="s">
+      <c r="B159" s="109" t="s">
         <v>334</v>
       </c>
       <c r="C159" s="87" t="s">
@@ -9532,29 +9628,33 @@
       <c r="I159" s="87"/>
       <c r="J159" s="87"/>
       <c r="K159" s="87"/>
+      <c r="L159" s="87"/>
     </row>
     <row r="160" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="97"/>
-      <c r="B160" s="99"/>
-      <c r="C160" s="91" t="s">
+      <c r="A160" s="114"/>
+      <c r="B160" s="109"/>
+      <c r="C160" s="95" t="s">
         <v>335</v>
       </c>
-      <c r="D160" s="101"/>
-      <c r="E160" s="101"/>
-      <c r="F160" s="92"/>
-      <c r="G160" s="88" t="s">
+      <c r="D160" s="96"/>
+      <c r="E160" s="96"/>
+      <c r="F160" s="97"/>
+      <c r="G160" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="H160" s="89"/>
-      <c r="I160" s="89"/>
-      <c r="J160" s="90"/>
-      <c r="K160" s="102" t="s">
+      <c r="H160" s="127"/>
+      <c r="I160" s="127"/>
+      <c r="J160" s="112"/>
+      <c r="K160" s="88" t="s">
+        <v>357</v>
+      </c>
+      <c r="L160" s="88" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A161" s="98"/>
-      <c r="B161" s="100"/>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A161" s="115"/>
+      <c r="B161" s="110"/>
       <c r="C161" s="64" t="s">
         <v>339</v>
       </c>
@@ -9579,9 +9679,10 @@
       <c r="J161" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K161" s="103"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K161" s="89"/>
+      <c r="L161" s="89"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="70" t="s">
         <v>343</v>
       </c>
@@ -9607,11 +9708,15 @@
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
       <c r="K162" s="30" t="str">
+        <f>TEXT(12.2,"0.00")</f>
+        <v>12.20</v>
+      </c>
+      <c r="L162" s="30" t="str">
         <f>TEXT(-93.52,"0.00")</f>
         <v>-93.52</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="70" t="s">
         <v>343</v>
       </c>
@@ -9649,18 +9754,22 @@
         <v>86.55</v>
       </c>
       <c r="K163" s="30" t="str">
+        <f>TEXT(-92.61,"0.00")</f>
+        <v>-92.61</v>
+      </c>
+      <c r="L163" s="30" t="str">
         <f>TEXT(-93.52,"0.00")</f>
         <v>-93.52</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="44" t="s">
         <v>431</v>
       </c>
       <c r="B164" s="45"/>
       <c r="C164" s="45"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="42" t="s">
         <v>432</v>
       </c>
@@ -9671,7 +9780,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="73" t="s">
         <v>435</v>
       </c>
@@ -9682,7 +9791,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="73" t="s">
         <v>437</v>
       </c>
@@ -9694,7 +9803,57 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="65">
+    <mergeCell ref="G154:J154"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C160:F160"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="K160:K161"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="A152:J152"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="AG88:AL88"/>
+    <mergeCell ref="T88:V88"/>
+    <mergeCell ref="W88:X88"/>
+    <mergeCell ref="Z88:AF88"/>
+    <mergeCell ref="A126:R126"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="A103:L103"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="A119:R119"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="L160:L161"/>
     <mergeCell ref="C110:K110"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="E147:H147"/>
@@ -9710,55 +9869,6 @@
     <mergeCell ref="B147:B149"/>
     <mergeCell ref="C147:C149"/>
     <mergeCell ref="D147:D149"/>
-    <mergeCell ref="A126:R126"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="A103:L103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="A119:R119"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="AG88:AL88"/>
-    <mergeCell ref="T88:V88"/>
-    <mergeCell ref="W88:X88"/>
-    <mergeCell ref="Z88:AF88"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C160:F160"/>
-    <mergeCell ref="G160:J160"/>
-    <mergeCell ref="K160:K161"/>
-    <mergeCell ref="G154:J154"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="G111:J111"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="A152:J152"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C62 NTB135:NTB136 NJF135:NJF136 MZJ135:MZJ136 MPN135:MPN136 MFR135:MFR136 LVV135:LVV136 LLZ135:LLZ136 KSH135:KSH136 KIL135:KIL136 JYP135:JYP136 JOT135:JOT136 JEX135:JEX136 IVB135:IVB136 ILF135:ILF136 IBJ135:IBJ136 HRN135:HRN136 HHR135:HHR136 GXV135:GXV136 GNZ135:GNZ136 GED135:GED136 FUH135:FUH136 FKL135:FKL136 LCD135:LCD136 FAP135:FAP136 EQT135:EQT136 EGX135:EGX136 DXB135:DXB136 DNF135:DNF136 DDJ135:DDJ136 CTN135:CTN136 CJR135:CJR136 BZV135:BZV136 BPZ135:BPZ136 BGD135:BGD136 AWH135:AWH136 AML135:AML136 ACP135:ACP136 ST135:ST136 IX135:IX136 WVJ135:WVJ136 WLN135:WLN136 WBR135:WBR136 VRV135:VRV136 VHZ135:VHZ136 UYD135:UYD136 UOH135:UOH136 UEL135:UEL136 TUP135:TUP136 TKT135:TKT136 TAX135:TAX136 SRB135:SRB136 SHF135:SHF136 RXJ135:RXJ136 RNN135:RNN136 RDR135:RDR136 QTV135:QTV136 QJZ135:QJZ136 QAD135:QAD136 PQH135:PQH136 PGL135:PGL136 OWP135:OWP136 OMT135:OMT136 MPN121:MPN124 MZJ121:MZJ124 NJF121:NJF124 NTB121:NTB124 OCX121:OCX124 OMT121:OMT124 OWP121:OWP124 PGL121:PGL124 PQH121:PQH124 QAD121:QAD124 QJZ121:QJZ124 QTV121:QTV124 RDR121:RDR124 RNN121:RNN124 RXJ121:RXJ124 SHF121:SHF124 SRB121:SRB124 TAX121:TAX124 TKT121:TKT124 TUP121:TUP124 UEL121:UEL124 UOH121:UOH124 UYD121:UYD124 VHZ121:VHZ124 VRV121:VRV124 WBR121:WBR124 WLN121:WLN124 WVJ121:WVJ124 IX121:IX124 ST121:ST124 ACP121:ACP124 AML121:AML124 AWH121:AWH124 BGD121:BGD124 BPZ121:BPZ124 BZV121:BZV124 CJR121:CJR124 CTN121:CTN124 DDJ121:DDJ124 DNF121:DNF124 DXB121:DXB124 EGX121:EGX124 EQT121:EQT124 FAP121:FAP124 LCD121:LCD124 FKL121:FKL124 FUH121:FUH124 GED121:GED124 GNZ121:GNZ124 GXV121:GXV124 HHR121:HHR124 HRN121:HRN124 IBJ121:IBJ124 ILF121:ILF124 IVB121:IVB124 JEX121:JEX124 JOT121:JOT124 JYP121:JYP124 KIL121:KIL124 KSH121:KSH124 LLZ121:LLZ124 LVV121:LVV124 MFR121:MFR124 MZJ128:MZJ131 NJF128:NJF131 NTB128:NTB131 OCX128:OCX131 OMT128:OMT131 OWP128:OWP131 PGL128:PGL131 PQH128:PQH131 QAD128:QAD131 QJZ128:QJZ131 QTV128:QTV131 RDR128:RDR131 RNN128:RNN131 RXJ128:RXJ131 SHF128:SHF131 SRB128:SRB131 TAX128:TAX131 TKT128:TKT131 TUP128:TUP131 UEL128:UEL131 UOH128:UOH131 UYD128:UYD131 VHZ128:VHZ131 VRV128:VRV131 WBR128:WBR131 WLN128:WLN131 WVJ128:WVJ131 IX128:IX131 ST128:ST131 ACP128:ACP131 AML128:AML131 AWH128:AWH131 BGD128:BGD131 BPZ128:BPZ131 BZV128:BZV131 CJR128:CJR131 CTN128:CTN131 DDJ128:DDJ131 DNF128:DNF131 DXB128:DXB131 EGX128:EGX131 EQT128:EQT131 FAP128:FAP131 LCD128:LCD131 FKL128:FKL131 FUH128:FUH131 GED128:GED131 GNZ128:GNZ131 GXV128:GXV131 HHR128:HHR131 HRN128:HRN131 IBJ128:IBJ131 ILF128:ILF131 IVB128:IVB131 JEX128:JEX131 JOT128:JOT131 JYP128:JYP131 KIL128:KIL131 KSH128:KSH131 LLZ128:LLZ131 LVV128:LVV131 MFR128:MFR131 OCX135:OCX136 MPN128:MPN131">
@@ -9790,13 +9900,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39772.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39772.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="446">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1406,124 +1406,28 @@
     <t>DM_RATEVALUE</t>
   </si>
   <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7158925744","dealId":"4593872799","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1168600381","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1168600382","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1168600383","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1160014271","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-01","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4593872799","modelId":"7158925744","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1160014283","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600381","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600382","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600383","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7158925744","dealId":"4593872799","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1168600403","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1168600404","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1168600405","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1160014283","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-31","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4593872799","modelId":"7158925744","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1160014284","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-31","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600403","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600404","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600405","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7158925744","dealId":"4593872799","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1168600384","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1168600385","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1168600386","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1160014272","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-01","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4593872799","modelId":"7158925744","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1160014285","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600384","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600385","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600386","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7158925744","dealId":"4593872799","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1168600409","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1168600410","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1168600411","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1160014285","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-31","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4593872799","modelId":"7158925744","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1160014286","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-31","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600409","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600410","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1168600411","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8536324124","dealId":"8248689673","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4018600358","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4018600359","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4018600360","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4010014230","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8248689673","modelId":"8536324124","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4010014242","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600358","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600359","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600360","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8536324124","dealId":"8248689673","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4018600380","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4018600381","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4018600382","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4010014242","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8248689673","modelId":"8536324124","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4010014243","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600380","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600381","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600382","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8536324124","dealId":"8248689673","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4018600361","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4018600362","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4018600363","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4010014231","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8248689673","modelId":"8536324124","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4010014244","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600361","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600362","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600363","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8536324124","dealId":"8248689673","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4018600386","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4018600387","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4018600388","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4010014244","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"8248689673","modelId":"8536324124","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4010014245","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600386","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600387","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4018600388","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2754782319","dealId":"9353319377","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2108600752","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2108600753","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2108600754","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"2100014438","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9353319377","modelId":"2754782319","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2100014450","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600752","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600753","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600754","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2754782319","dealId":"9353319377","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2108600774","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2108600775","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2108600776","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"2100014450","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9353319377","modelId":"2754782319","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2100014451","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600774","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600775","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600776","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2754782319","dealId":"9353319377","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2108600755","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2108600756","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2108600757","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"2100014439","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9353319377","modelId":"2754782319","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2100014452","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600755","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600756","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600757","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2754782319","dealId":"9353319377","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"2108600780","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"2108600781","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"2108600782","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"2100014452","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9353319377","modelId":"2754782319","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"2100014453","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600780","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600781","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"2108600782","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6637322207","dealId":"6489960752","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5538601239","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5538601240","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5538601241","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5530014693","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6489960752","modelId":"6637322207","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5530014705","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601239","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601240","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601241","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6637322207","dealId":"6489960752","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5538601261","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5538601262","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5538601263","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5530014705","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6489960752","modelId":"6637322207","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5530014706","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601261","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601262","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601263","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6637322207","dealId":"6489960752","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5538601242","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5538601243","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5538601244","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5530014694","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6489960752","modelId":"6637322207","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5530014707","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601242","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601243","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601244","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6637322207","dealId":"6489960752","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5538601267","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5538601268","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5538601269","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5530014707","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6489960752","modelId":"6637322207","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5530014708","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601267","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601268","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5538601269","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5977988242","dealId":"7661891596","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1618600311","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1618600312","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1618600313","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1610014199","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7661891596","modelId":"5977988242","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1610014211","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600311","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600312","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600313","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5977988242","dealId":"7661891596","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1618600333","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1618600334","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1618600335","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1610014211","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7661891596","modelId":"5977988242","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1610014212","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600333","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600334","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600335","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5977988242","dealId":"7661891596","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1618600314","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1618600315","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1618600316","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1610014200","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7661891596","modelId":"5977988242","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1610014213","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600314","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600315","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600316","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5977988242","dealId":"7661891596","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1618600339","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1618600340","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1618600341","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1610014213","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7661891596","modelId":"5977988242","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1610014214","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600339","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600340","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1618600341","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2569498829","dealId":"7718270708","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1108600461","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1108600462","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1108600463","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1100014273","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7718270708","modelId":"2569498829","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1100014285","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600461","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600462","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600463","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2569498829","dealId":"7718270708","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1108600483","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1108600484","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1108600485","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"1100014285","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7718270708","modelId":"2569498829","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1100014286","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600483","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600484","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600485","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2569498829","dealId":"7718270708","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1108600464","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1108600465","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1108600466","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1100014274","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7718270708","modelId":"2569498829","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1100014287","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600464","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600465","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600466","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"2569498829","dealId":"7718270708","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"1108600489","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"1108600490","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"1108600491","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"1100014287","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7718270708","modelId":"2569498829","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1100014288","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600489","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600490","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600491","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2142,126 +2046,126 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2270,6 +2174,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2554,19 +2482,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" topLeftCell="C139" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="L160" sqref="L160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="94.54296875" collapsed="true"/>
-    <col min="3" max="11" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="39.26953125" collapsed="true"/>
-    <col min="14" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="1" max="1" width="37.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="94.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="11" width="24.6328125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="53" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39.26953125" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -3425,11 +3353,11 @@
       <c r="I20" s="14"/>
     </row>
     <row r="22" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
     </row>
     <row r="23" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
@@ -3483,24 +3411,24 @@
       </c>
     </row>
     <row r="27" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
       <c r="BM27" s="16"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="16"/>
@@ -6377,12 +6305,12 @@
       <c r="DM60" s="16"/>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="122" t="s">
+      <c r="A62" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="B62" s="123"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="124"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="112"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6420,17 +6348,17 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="122" t="s">
+      <c r="A66" s="110" t="s">
         <v>237</v>
       </c>
-      <c r="B66" s="123"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="124"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="112"/>
     </row>
     <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
@@ -6504,11 +6432,11 @@
       <c r="I68" s="31"/>
       <c r="J68" s="41" t="str">
         <f t="shared" ref="J68:J79" ca="1" si="0">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K68" s="41" t="str">
         <f t="shared" ref="K68:K79" ca="1" si="1">TEXT(TODAY()-1,"MM-DD-YYYY")</f>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>168</v>
@@ -6546,11 +6474,11 @@
       <c r="I69" s="31"/>
       <c r="J69" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K69" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>168</v>
@@ -6588,11 +6516,11 @@
       <c r="I70" s="31"/>
       <c r="J70" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K70" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L70" s="32" t="s">
         <v>168</v>
@@ -6630,11 +6558,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K71" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6672,11 +6600,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K72" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -6714,11 +6642,11 @@
       <c r="I73" s="31"/>
       <c r="J73" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K73" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -6756,11 +6684,11 @@
       <c r="I74" s="31"/>
       <c r="J74" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K74" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -6798,11 +6726,11 @@
       <c r="I75" s="31"/>
       <c r="J75" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K75" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>168</v>
@@ -6840,11 +6768,11 @@
       <c r="I76" s="31"/>
       <c r="J76" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K76" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L76" s="32" t="s">
         <v>168</v>
@@ -6882,11 +6810,11 @@
       <c r="I77" s="31"/>
       <c r="J77" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K77" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L77" s="32" t="s">
         <v>168</v>
@@ -6924,11 +6852,11 @@
       <c r="I78" s="31"/>
       <c r="J78" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K78" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L78" s="32" t="s">
         <v>168</v>
@@ -6966,11 +6894,11 @@
       <c r="I79" s="31"/>
       <c r="J79" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-12-2023</v>
       </c>
       <c r="K79" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-10-2023</v>
       </c>
       <c r="L79" s="32" t="s">
         <v>168</v>
@@ -6984,27 +6912,27 @@
       </c>
     </row>
     <row r="81" spans="1:78" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="125" t="s">
+      <c r="A81" s="113" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="125"/>
-      <c r="C81" s="125"/>
-      <c r="D81" s="125"/>
-      <c r="E81" s="125"/>
-      <c r="F81" s="125"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="125"/>
-      <c r="J81" s="125"/>
-      <c r="K81" s="125"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="113"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="113"/>
+      <c r="F81" s="113"/>
+      <c r="G81" s="113"/>
+      <c r="H81" s="113"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="113"/>
+      <c r="K81" s="113"/>
     </row>
     <row r="83" spans="1:78" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="126" t="s">
+      <c r="A83" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="126"/>
-      <c r="C83" s="126"/>
-      <c r="D83" s="126"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="s">
@@ -7133,33 +7061,33 @@
       <c r="S88" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="T88" s="101" t="s">
+      <c r="T88" s="122" t="s">
         <v>286</v>
       </c>
-      <c r="U88" s="102"/>
-      <c r="V88" s="103"/>
-      <c r="W88" s="101" t="s">
+      <c r="U88" s="123"/>
+      <c r="V88" s="124"/>
+      <c r="W88" s="122" t="s">
         <v>287</v>
       </c>
-      <c r="X88" s="103"/>
+      <c r="X88" s="124"/>
       <c r="Y88" s="48"/>
-      <c r="Z88" s="98" t="s">
+      <c r="Z88" s="119" t="s">
         <v>288</v>
       </c>
-      <c r="AA88" s="99"/>
-      <c r="AB88" s="99"/>
-      <c r="AC88" s="99"/>
-      <c r="AD88" s="99"/>
-      <c r="AE88" s="99"/>
-      <c r="AF88" s="100"/>
-      <c r="AG88" s="98" t="s">
+      <c r="AA88" s="120"/>
+      <c r="AB88" s="120"/>
+      <c r="AC88" s="120"/>
+      <c r="AD88" s="120"/>
+      <c r="AE88" s="120"/>
+      <c r="AF88" s="121"/>
+      <c r="AG88" s="119" t="s">
         <v>289</v>
       </c>
-      <c r="AH88" s="99"/>
-      <c r="AI88" s="99"/>
-      <c r="AJ88" s="99"/>
-      <c r="AK88" s="99"/>
-      <c r="AL88" s="100"/>
+      <c r="AH88" s="120"/>
+      <c r="AI88" s="120"/>
+      <c r="AJ88" s="120"/>
+      <c r="AK88" s="120"/>
+      <c r="AL88" s="121"/>
       <c r="AM88" s="49"/>
       <c r="AN88" s="50"/>
       <c r="AO88" s="50"/>
@@ -7345,11 +7273,11 @@
       </c>
       <c r="G90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-11</v>
       </c>
       <c r="H90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-11</v>
       </c>
       <c r="I90" s="55"/>
       <c r="J90" s="55">
@@ -7596,7 +7524,7 @@
       </c>
       <c r="C94" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-15</v>
+        <v>2023-09-25</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>153</v>
@@ -7655,7 +7583,7 @@
       </c>
       <c r="C95" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-15</v>
+        <v>2023-09-25</v>
       </c>
       <c r="D95" s="33" t="s">
         <v>153</v>
@@ -7706,66 +7634,66 @@
       <c r="BZ95" s="51"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A97" s="106" t="s">
+      <c r="A97" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="B97" s="107"/>
-      <c r="C97" s="107"/>
-      <c r="D97" s="107"/>
-      <c r="E97" s="107"/>
-      <c r="F97" s="107"/>
-      <c r="G97" s="107"/>
-      <c r="H97" s="107"/>
-      <c r="I97" s="107"/>
-      <c r="J97" s="107"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="105"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="62"/>
       <c r="B98" s="63"/>
-      <c r="C98" s="90" t="s">
+      <c r="C98" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="D98" s="90"/>
-      <c r="E98" s="90"/>
-      <c r="F98" s="90"/>
-      <c r="G98" s="90"/>
-      <c r="H98" s="90"/>
-      <c r="I98" s="90"/>
-      <c r="J98" s="90"/>
-      <c r="K98" s="90"/>
+      <c r="D98" s="126"/>
+      <c r="E98" s="126"/>
+      <c r="F98" s="126"/>
+      <c r="G98" s="126"/>
+      <c r="H98" s="126"/>
+      <c r="I98" s="126"/>
+      <c r="J98" s="126"/>
+      <c r="K98" s="126"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="91" t="s">
+      <c r="A99" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="B99" s="91" t="s">
+      <c r="B99" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="C99" s="95" t="s">
+      <c r="C99" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="D99" s="96"/>
-      <c r="E99" s="96"/>
-      <c r="F99" s="97"/>
-      <c r="G99" s="111" t="s">
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H99" s="127"/>
-      <c r="I99" s="127"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="91" t="s">
+      <c r="H99" s="89"/>
+      <c r="I99" s="89"/>
+      <c r="J99" s="90"/>
+      <c r="K99" s="93" t="s">
         <v>337</v>
       </c>
-      <c r="L99" s="91" t="s">
+      <c r="L99" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="R99" s="91" t="s">
+      <c r="R99" s="93" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="92"/>
-      <c r="B100" s="92"/>
+      <c r="A100" s="94"/>
+      <c r="B100" s="94"/>
       <c r="C100" s="64" t="s">
         <v>339</v>
       </c>
@@ -7790,9 +7718,9 @@
       <c r="J100" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K100" s="92"/>
-      <c r="L100" s="92"/>
-      <c r="R100" s="92"/>
+      <c r="K100" s="94"/>
+      <c r="L100" s="94"/>
+      <c r="R100" s="94"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="40" t="s">
@@ -7843,76 +7771,76 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="106" t="s">
+      <c r="A103" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="107"/>
-      <c r="G103" s="107"/>
-      <c r="H103" s="107"/>
-      <c r="I103" s="107"/>
-      <c r="J103" s="107"/>
-      <c r="K103" s="107"/>
-      <c r="L103" s="107"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="105"/>
+      <c r="I103" s="105"/>
+      <c r="J103" s="105"/>
+      <c r="K103" s="105"/>
+      <c r="L103" s="105"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A104" s="113" t="s">
+      <c r="A104" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="113" t="s">
+      <c r="B104" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="C104" s="108" t="s">
+      <c r="C104" s="127" t="s">
         <v>347</v>
       </c>
-      <c r="D104" s="116" t="s">
+      <c r="D104" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="E104" s="93" t="s">
+      <c r="E104" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="F104" s="93"/>
-      <c r="G104" s="93"/>
-      <c r="H104" s="93"/>
-      <c r="I104" s="94" t="s">
+      <c r="F104" s="125"/>
+      <c r="G104" s="125"/>
+      <c r="H104" s="125"/>
+      <c r="I104" s="118" t="s">
         <v>349</v>
       </c>
-      <c r="J104" s="94"/>
-      <c r="K104" s="94"/>
-      <c r="L104" s="94"/>
+      <c r="J104" s="118"/>
+      <c r="K104" s="118"/>
+      <c r="L104" s="118"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="114"/>
-      <c r="B105" s="114"/>
-      <c r="C105" s="109"/>
-      <c r="D105" s="117"/>
-      <c r="E105" s="95" t="s">
+      <c r="A105" s="97"/>
+      <c r="B105" s="97"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="116"/>
+      <c r="E105" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="F105" s="97"/>
-      <c r="G105" s="111" t="s">
+      <c r="F105" s="92"/>
+      <c r="G105" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H105" s="112"/>
-      <c r="I105" s="95" t="s">
+      <c r="H105" s="90"/>
+      <c r="I105" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="J105" s="97"/>
-      <c r="K105" s="111" t="s">
+      <c r="J105" s="92"/>
+      <c r="K105" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="L105" s="112"/>
+      <c r="L105" s="90"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="115"/>
-      <c r="B106" s="115" t="s">
+      <c r="A106" s="98"/>
+      <c r="B106" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C106" s="110"/>
-      <c r="D106" s="118"/>
+      <c r="C106" s="100"/>
+      <c r="D106" s="117"/>
       <c r="E106" s="64" t="s">
         <v>351</v>
       </c>
@@ -7987,61 +7915,61 @@
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A109" s="106" t="s">
+      <c r="A109" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="B109" s="107"/>
-      <c r="C109" s="107"/>
-      <c r="D109" s="107"/>
-      <c r="E109" s="107"/>
-      <c r="F109" s="107"/>
-      <c r="G109" s="107"/>
-      <c r="H109" s="107"/>
-      <c r="I109" s="107"/>
-      <c r="J109" s="107"/>
+      <c r="B109" s="105"/>
+      <c r="C109" s="105"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="105"/>
+      <c r="G109" s="105"/>
+      <c r="H109" s="105"/>
+      <c r="I109" s="105"/>
+      <c r="J109" s="105"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="62"/>
       <c r="B110" s="63"/>
-      <c r="C110" s="90" t="s">
+      <c r="C110" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="90"/>
-      <c r="E110" s="90"/>
-      <c r="F110" s="90"/>
-      <c r="G110" s="90"/>
-      <c r="H110" s="90"/>
-      <c r="I110" s="90"/>
-      <c r="J110" s="90"/>
-      <c r="K110" s="90"/>
+      <c r="D110" s="126"/>
+      <c r="E110" s="126"/>
+      <c r="F110" s="126"/>
+      <c r="G110" s="126"/>
+      <c r="H110" s="126"/>
+      <c r="I110" s="126"/>
+      <c r="J110" s="126"/>
+      <c r="K110" s="126"/>
       <c r="Z110" s="69"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A111" s="91" t="s">
+      <c r="A111" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="B111" s="91" t="s">
+      <c r="B111" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="C111" s="95" t="s">
+      <c r="C111" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="D111" s="96"/>
-      <c r="E111" s="96"/>
-      <c r="F111" s="97"/>
-      <c r="G111" s="111" t="s">
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="92"/>
+      <c r="G111" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H111" s="127"/>
-      <c r="I111" s="127"/>
-      <c r="J111" s="112"/>
-      <c r="K111" s="88" t="s">
+      <c r="H111" s="89"/>
+      <c r="I111" s="89"/>
+      <c r="J111" s="90"/>
+      <c r="K111" s="102" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A112" s="92"/>
-      <c r="B112" s="92"/>
+      <c r="A112" s="94"/>
+      <c r="B112" s="94"/>
       <c r="C112" s="64" t="s">
         <v>339</v>
       </c>
@@ -8066,7 +7994,7 @@
       <c r="J112" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K112" s="89"/>
+      <c r="K112" s="103"/>
     </row>
     <row r="113" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A113" s="55" t="s">
@@ -8174,7 +8102,7 @@
       <c r="I117" s="72"/>
       <c r="J117" s="73">
         <f ca="1">TODAY()</f>
-        <v>45139</v>
+        <v>45149</v>
       </c>
       <c r="K117" s="73">
         <v>234</v>
@@ -8184,26 +8112,26 @@
       </c>
     </row>
     <row r="119" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A119" s="104" t="s">
+      <c r="A119" s="95" t="s">
         <v>404</v>
       </c>
-      <c r="B119" s="105"/>
-      <c r="C119" s="105"/>
-      <c r="D119" s="105"/>
-      <c r="E119" s="105"/>
-      <c r="F119" s="105"/>
-      <c r="G119" s="105"/>
-      <c r="H119" s="105"/>
-      <c r="I119" s="105"/>
-      <c r="J119" s="105"/>
-      <c r="K119" s="105"/>
-      <c r="L119" s="105"/>
-      <c r="M119" s="105"/>
-      <c r="N119" s="105"/>
-      <c r="O119" s="105"/>
-      <c r="P119" s="105"/>
-      <c r="Q119" s="105"/>
-      <c r="R119" s="105"/>
+      <c r="B119" s="96"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="96"/>
+      <c r="E119" s="96"/>
+      <c r="F119" s="96"/>
+      <c r="G119" s="96"/>
+      <c r="H119" s="96"/>
+      <c r="I119" s="96"/>
+      <c r="J119" s="96"/>
+      <c r="K119" s="96"/>
+      <c r="L119" s="96"/>
+      <c r="M119" s="96"/>
+      <c r="N119" s="96"/>
+      <c r="O119" s="96"/>
+      <c r="P119" s="96"/>
+      <c r="Q119" s="96"/>
+      <c r="R119" s="96"/>
       <c r="S119" s="79"/>
       <c r="T119" s="79"/>
       <c r="U119" s="79"/>
@@ -8303,7 +8231,7 @@
       </c>
       <c r="D121" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E121" s="78"/>
       <c r="F121" s="78" t="s">
@@ -8369,7 +8297,7 @@
       </c>
       <c r="D122" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E122" s="78"/>
       <c r="F122" s="78" t="s">
@@ -8437,7 +8365,7 @@
       </c>
       <c r="D123" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E123" s="76"/>
       <c r="F123" s="76" t="s">
@@ -8487,10 +8415,10 @@
       </c>
       <c r="Z123" s="76"/>
       <c r="AU123" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="AV123" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8503,7 +8431,7 @@
       </c>
       <c r="D124" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-08-31</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E124" s="81"/>
       <c r="F124" s="81" t="s">
@@ -8553,33 +8481,33 @@
       </c>
       <c r="Z124" s="81"/>
       <c r="AU124" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="AV124" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A126" s="104" t="s">
+      <c r="A126" s="95" t="s">
         <v>403</v>
       </c>
-      <c r="B126" s="105"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="105"/>
-      <c r="I126" s="105"/>
-      <c r="J126" s="105"/>
-      <c r="K126" s="105"/>
-      <c r="L126" s="105"/>
-      <c r="M126" s="105"/>
-      <c r="N126" s="105"/>
-      <c r="O126" s="105"/>
-      <c r="P126" s="105"/>
-      <c r="Q126" s="105"/>
-      <c r="R126" s="105"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="96"/>
+      <c r="F126" s="96"/>
+      <c r="G126" s="96"/>
+      <c r="H126" s="96"/>
+      <c r="I126" s="96"/>
+      <c r="J126" s="96"/>
+      <c r="K126" s="96"/>
+      <c r="L126" s="96"/>
+      <c r="M126" s="96"/>
+      <c r="N126" s="96"/>
+      <c r="O126" s="96"/>
+      <c r="P126" s="96"/>
+      <c r="Q126" s="96"/>
+      <c r="R126" s="96"/>
       <c r="S126" s="80"/>
       <c r="T126" s="80"/>
       <c r="U126" s="80"/>
@@ -8679,7 +8607,7 @@
       </c>
       <c r="D128" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E128" s="78"/>
       <c r="F128" s="78" t="s">
@@ -8745,7 +8673,7 @@
       </c>
       <c r="D129" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E129" s="78"/>
       <c r="F129" s="78" t="s">
@@ -8813,7 +8741,7 @@
       </c>
       <c r="D130" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E130" s="76"/>
       <c r="F130" s="76" t="s">
@@ -8865,10 +8793,10 @@
       </c>
       <c r="Z130" s="76"/>
       <c r="AU130" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="AV130" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8881,7 +8809,7 @@
       </c>
       <c r="D131" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-08-31</v>
+        <v>2023-09-10</v>
       </c>
       <c r="E131" s="81"/>
       <c r="F131" s="81" t="s">
@@ -8933,33 +8861,33 @@
       </c>
       <c r="Z131" s="81"/>
       <c r="AU131" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="AV131" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A133" s="104" t="s">
+      <c r="A133" s="95" t="s">
         <v>405</v>
       </c>
-      <c r="B133" s="105"/>
-      <c r="C133" s="105"/>
-      <c r="D133" s="105"/>
-      <c r="E133" s="105"/>
-      <c r="F133" s="105"/>
-      <c r="G133" s="105"/>
-      <c r="H133" s="105"/>
-      <c r="I133" s="105"/>
-      <c r="J133" s="105"/>
-      <c r="K133" s="105"/>
-      <c r="L133" s="105"/>
-      <c r="M133" s="105"/>
-      <c r="N133" s="105"/>
-      <c r="O133" s="105"/>
-      <c r="P133" s="105"/>
-      <c r="Q133" s="105"/>
-      <c r="R133" s="105"/>
+      <c r="B133" s="96"/>
+      <c r="C133" s="96"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="96"/>
+      <c r="F133" s="96"/>
+      <c r="G133" s="96"/>
+      <c r="H133" s="96"/>
+      <c r="I133" s="96"/>
+      <c r="J133" s="96"/>
+      <c r="K133" s="96"/>
+      <c r="L133" s="96"/>
+      <c r="M133" s="96"/>
+      <c r="N133" s="96"/>
+      <c r="O133" s="96"/>
+      <c r="P133" s="96"/>
+      <c r="Q133" s="96"/>
+      <c r="R133" s="96"/>
       <c r="S133" s="83"/>
       <c r="T133" s="83"/>
       <c r="U133" s="83"/>
@@ -9059,7 +8987,7 @@
       </c>
       <c r="D135" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E135" s="78"/>
       <c r="F135" s="78" t="str">
@@ -9125,7 +9053,7 @@
       </c>
       <c r="D136" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-11</v>
       </c>
       <c r="E136" s="78"/>
       <c r="F136" s="78" t="str">
@@ -9250,7 +9178,7 @@
       <c r="I140" s="72"/>
       <c r="J140" s="73">
         <f ca="1">TODAY()</f>
-        <v>45139</v>
+        <v>45149</v>
       </c>
       <c r="K140" s="73">
         <v>234</v>
@@ -9326,7 +9254,7 @@
       <c r="I144" s="72"/>
       <c r="J144" s="73">
         <f ca="1">TODAY()</f>
-        <v>45139</v>
+        <v>45149</v>
       </c>
       <c r="K144" s="73">
         <v>234</v>
@@ -9336,76 +9264,76 @@
       </c>
     </row>
     <row r="146" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="106" t="s">
+      <c r="A146" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="B146" s="107"/>
-      <c r="C146" s="107"/>
-      <c r="D146" s="107"/>
-      <c r="E146" s="107"/>
-      <c r="F146" s="107"/>
-      <c r="G146" s="107"/>
-      <c r="H146" s="107"/>
-      <c r="I146" s="107"/>
-      <c r="J146" s="107"/>
-      <c r="K146" s="107"/>
-      <c r="L146" s="107"/>
+      <c r="B146" s="105"/>
+      <c r="C146" s="105"/>
+      <c r="D146" s="105"/>
+      <c r="E146" s="105"/>
+      <c r="F146" s="105"/>
+      <c r="G146" s="105"/>
+      <c r="H146" s="105"/>
+      <c r="I146" s="105"/>
+      <c r="J146" s="105"/>
+      <c r="K146" s="105"/>
+      <c r="L146" s="105"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A147" s="113" t="s">
+      <c r="A147" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="B147" s="113" t="s">
+      <c r="B147" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="C147" s="108" t="s">
+      <c r="C147" s="127" t="s">
         <v>347</v>
       </c>
-      <c r="D147" s="116" t="s">
+      <c r="D147" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="E147" s="93" t="s">
+      <c r="E147" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="F147" s="93"/>
-      <c r="G147" s="93"/>
-      <c r="H147" s="93"/>
-      <c r="I147" s="94" t="s">
+      <c r="F147" s="125"/>
+      <c r="G147" s="125"/>
+      <c r="H147" s="125"/>
+      <c r="I147" s="118" t="s">
         <v>349</v>
       </c>
-      <c r="J147" s="94"/>
-      <c r="K147" s="94"/>
-      <c r="L147" s="94"/>
+      <c r="J147" s="118"/>
+      <c r="K147" s="118"/>
+      <c r="L147" s="118"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A148" s="114"/>
-      <c r="B148" s="114"/>
-      <c r="C148" s="109"/>
-      <c r="D148" s="117"/>
-      <c r="E148" s="95" t="s">
+      <c r="A148" s="97"/>
+      <c r="B148" s="97"/>
+      <c r="C148" s="99"/>
+      <c r="D148" s="116"/>
+      <c r="E148" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="F148" s="97"/>
-      <c r="G148" s="111" t="s">
+      <c r="F148" s="92"/>
+      <c r="G148" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H148" s="112"/>
-      <c r="I148" s="95" t="s">
+      <c r="H148" s="90"/>
+      <c r="I148" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="J148" s="97"/>
-      <c r="K148" s="111" t="s">
+      <c r="J148" s="92"/>
+      <c r="K148" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="L148" s="112"/>
+      <c r="L148" s="90"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A149" s="115"/>
-      <c r="B149" s="115" t="s">
+      <c r="A149" s="98"/>
+      <c r="B149" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C149" s="110"/>
-      <c r="D149" s="118"/>
+      <c r="C149" s="100"/>
+      <c r="D149" s="117"/>
       <c r="E149" s="64" t="s">
         <v>351</v>
       </c>
@@ -9480,61 +9408,61 @@
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A152" s="106" t="s">
+      <c r="A152" s="104" t="s">
         <v>356</v>
       </c>
-      <c r="B152" s="107"/>
-      <c r="C152" s="107"/>
-      <c r="D152" s="107"/>
-      <c r="E152" s="107"/>
-      <c r="F152" s="107"/>
-      <c r="G152" s="107"/>
-      <c r="H152" s="107"/>
-      <c r="I152" s="107"/>
-      <c r="J152" s="107"/>
+      <c r="B152" s="105"/>
+      <c r="C152" s="105"/>
+      <c r="D152" s="105"/>
+      <c r="E152" s="105"/>
+      <c r="F152" s="105"/>
+      <c r="G152" s="105"/>
+      <c r="H152" s="105"/>
+      <c r="I152" s="105"/>
+      <c r="J152" s="105"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="84"/>
       <c r="B153" s="85"/>
-      <c r="C153" s="90" t="s">
+      <c r="C153" s="126" t="s">
         <v>332</v>
       </c>
-      <c r="D153" s="90"/>
-      <c r="E153" s="90"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="90"/>
-      <c r="H153" s="90"/>
-      <c r="I153" s="90"/>
-      <c r="J153" s="90"/>
-      <c r="K153" s="90"/>
+      <c r="D153" s="126"/>
+      <c r="E153" s="126"/>
+      <c r="F153" s="126"/>
+      <c r="G153" s="126"/>
+      <c r="H153" s="126"/>
+      <c r="I153" s="126"/>
+      <c r="J153" s="126"/>
+      <c r="K153" s="126"/>
       <c r="Z153" s="69"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A154" s="91" t="s">
+      <c r="A154" s="93" t="s">
         <v>333</v>
       </c>
-      <c r="B154" s="91" t="s">
+      <c r="B154" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="C154" s="95" t="s">
+      <c r="C154" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="D154" s="96"/>
-      <c r="E154" s="96"/>
-      <c r="F154" s="97"/>
-      <c r="G154" s="111" t="s">
+      <c r="D154" s="101"/>
+      <c r="E154" s="101"/>
+      <c r="F154" s="92"/>
+      <c r="G154" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H154" s="127"/>
-      <c r="I154" s="127"/>
-      <c r="J154" s="112"/>
-      <c r="K154" s="88" t="s">
-        <v>357</v>
+      <c r="H154" s="89"/>
+      <c r="I154" s="89"/>
+      <c r="J154" s="90"/>
+      <c r="K154" s="102" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A155" s="92"/>
-      <c r="B155" s="92"/>
+      <c r="A155" s="94"/>
+      <c r="B155" s="94"/>
       <c r="C155" s="64" t="s">
         <v>339</v>
       </c>
@@ -9559,7 +9487,7 @@
       <c r="J155" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K155" s="89"/>
+      <c r="K155" s="103"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" s="55" t="s">
@@ -9601,20 +9529,20 @@
       <c r="K156" s="66"/>
     </row>
     <row r="158" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="104" t="s">
+      <c r="A158" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="B158" s="105"/>
-      <c r="C158" s="105"/>
-      <c r="D158" s="105"/>
-      <c r="E158" s="105"/>
-      <c r="F158" s="105"/>
+      <c r="B158" s="45"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="45"/>
+      <c r="E158" s="45"/>
+      <c r="F158" s="45"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A159" s="114" t="s">
+      <c r="A159" s="131" t="s">
         <v>333</v>
       </c>
-      <c r="B159" s="109" t="s">
+      <c r="B159" s="132" t="s">
         <v>334</v>
       </c>
       <c r="C159" s="87" t="s">
@@ -9628,33 +9556,29 @@
       <c r="I159" s="87"/>
       <c r="J159" s="87"/>
       <c r="K159" s="87"/>
-      <c r="L159" s="87"/>
     </row>
     <row r="160" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="114"/>
-      <c r="B160" s="109"/>
-      <c r="C160" s="95" t="s">
+      <c r="A160" s="131"/>
+      <c r="B160" s="132"/>
+      <c r="C160" s="133" t="s">
         <v>335</v>
       </c>
-      <c r="D160" s="96"/>
-      <c r="E160" s="96"/>
-      <c r="F160" s="97"/>
-      <c r="G160" s="111" t="s">
+      <c r="D160" s="134"/>
+      <c r="E160" s="134"/>
+      <c r="F160" s="135"/>
+      <c r="G160" s="136" t="s">
         <v>336</v>
       </c>
-      <c r="H160" s="127"/>
-      <c r="I160" s="127"/>
-      <c r="J160" s="112"/>
-      <c r="K160" s="88" t="s">
-        <v>357</v>
-      </c>
-      <c r="L160" s="88" t="s">
+      <c r="H160" s="137"/>
+      <c r="I160" s="137"/>
+      <c r="J160" s="138"/>
+      <c r="K160" s="139" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A161" s="115"/>
-      <c r="B161" s="110"/>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161" s="140"/>
+      <c r="B161" s="141"/>
       <c r="C161" s="64" t="s">
         <v>339</v>
       </c>
@@ -9679,10 +9603,9 @@
       <c r="J161" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K161" s="89"/>
-      <c r="L161" s="89"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K161" s="142"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="70" t="s">
         <v>343</v>
       </c>
@@ -9703,73 +9626,35 @@
         <f>TEXT(98.76,"0.00")</f>
         <v>98.76</v>
       </c>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
-      <c r="I162" s="30"/>
-      <c r="J162" s="30"/>
+      <c r="G162" s="30" t="str">
+        <f>"$"&amp;TEXT(301614.5,"0.00")</f>
+        <v>$301614.50</v>
+      </c>
+      <c r="H162" s="30" t="str">
+        <f>"$"&amp;TEXT(40560,"0.00")</f>
+        <v>$40560.00</v>
+      </c>
+      <c r="I162" s="30" t="str">
+        <f>"$"&amp;TEXT(261054.5,"0.00")</f>
+        <v>$261054.50</v>
+      </c>
+      <c r="J162" s="30" t="str">
+        <f>TEXT(86.55,"0.00")</f>
+        <v>86.55</v>
+      </c>
       <c r="K162" s="30" t="str">
-        <f>TEXT(12.2,"0.00")</f>
-        <v>12.20</v>
-      </c>
-      <c r="L162" s="30" t="str">
         <f>TEXT(-93.52,"0.00")</f>
         <v>-93.52</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A163" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="B163" s="55"/>
-      <c r="C163" s="30" t="str">
-        <f>"$"&amp;TEXT(19544.84,"0.00")</f>
-        <v>$19544.84</v>
-      </c>
-      <c r="D163" s="30" t="str">
-        <f>"$"&amp;TEXT(243.09,"0.00")</f>
-        <v>$243.09</v>
-      </c>
-      <c r="E163" s="30" t="str">
-        <f>"$"&amp;TEXT(19301.75,"0.00")</f>
-        <v>$19301.75</v>
-      </c>
-      <c r="F163" s="30" t="str">
-        <f>TEXT(98.76,"0.00")</f>
-        <v>98.76</v>
-      </c>
-      <c r="G163" s="30" t="str">
-        <f>"$"&amp;TEXT(301614.5,"0.00")</f>
-        <v>$301614.50</v>
-      </c>
-      <c r="H163" s="30" t="str">
-        <f>"$"&amp;TEXT(40560,"0.00")</f>
-        <v>$40560.00</v>
-      </c>
-      <c r="I163" s="30" t="str">
-        <f>"$"&amp;TEXT(261054.5,"0.00")</f>
-        <v>$261054.50</v>
-      </c>
-      <c r="J163" s="30" t="str">
-        <f>TEXT(86.55,"0.00")</f>
-        <v>86.55</v>
-      </c>
-      <c r="K163" s="30" t="str">
-        <f>TEXT(-92.61,"0.00")</f>
-        <v>-92.61</v>
-      </c>
-      <c r="L163" s="30" t="str">
-        <f>TEXT(-93.52,"0.00")</f>
-        <v>-93.52</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="44" t="s">
         <v>431</v>
       </c>
       <c r="B164" s="45"/>
       <c r="C164" s="45"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="42" t="s">
         <v>432</v>
       </c>
@@ -9780,7 +9665,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="73" t="s">
         <v>435</v>
       </c>
@@ -9791,7 +9676,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="73" t="s">
         <v>437</v>
       </c>
@@ -9803,57 +9688,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="G154:J154"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="R99:R100"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C160:F160"/>
-    <mergeCell ref="G160:J160"/>
-    <mergeCell ref="K160:K161"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="G111:J111"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="A152:J152"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="AG88:AL88"/>
-    <mergeCell ref="T88:V88"/>
-    <mergeCell ref="W88:X88"/>
-    <mergeCell ref="Z88:AF88"/>
-    <mergeCell ref="A126:R126"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="A103:L103"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="C98:K98"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="A119:R119"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="L160:L161"/>
+  <mergeCells count="58">
     <mergeCell ref="C110:K110"/>
     <mergeCell ref="A111:A112"/>
     <mergeCell ref="E147:H147"/>
@@ -9869,6 +9704,49 @@
     <mergeCell ref="B147:B149"/>
     <mergeCell ref="C147:C149"/>
     <mergeCell ref="D147:D149"/>
+    <mergeCell ref="A126:R126"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="A103:L103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="A119:R119"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="AG88:AL88"/>
+    <mergeCell ref="T88:V88"/>
+    <mergeCell ref="W88:X88"/>
+    <mergeCell ref="Z88:AF88"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="C98:K98"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="G154:J154"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="R99:R100"/>
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="A152:J152"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C62 NTB135:NTB136 NJF135:NJF136 MZJ135:MZJ136 MPN135:MPN136 MFR135:MFR136 LVV135:LVV136 LLZ135:LLZ136 KSH135:KSH136 KIL135:KIL136 JYP135:JYP136 JOT135:JOT136 JEX135:JEX136 IVB135:IVB136 ILF135:ILF136 IBJ135:IBJ136 HRN135:HRN136 HHR135:HHR136 GXV135:GXV136 GNZ135:GNZ136 GED135:GED136 FUH135:FUH136 FKL135:FKL136 LCD135:LCD136 FAP135:FAP136 EQT135:EQT136 EGX135:EGX136 DXB135:DXB136 DNF135:DNF136 DDJ135:DDJ136 CTN135:CTN136 CJR135:CJR136 BZV135:BZV136 BPZ135:BPZ136 BGD135:BGD136 AWH135:AWH136 AML135:AML136 ACP135:ACP136 ST135:ST136 IX135:IX136 WVJ135:WVJ136 WLN135:WLN136 WBR135:WBR136 VRV135:VRV136 VHZ135:VHZ136 UYD135:UYD136 UOH135:UOH136 UEL135:UEL136 TUP135:TUP136 TKT135:TKT136 TAX135:TAX136 SRB135:SRB136 SHF135:SHF136 RXJ135:RXJ136 RNN135:RNN136 RDR135:RDR136 QTV135:QTV136 QJZ135:QJZ136 QAD135:QAD136 PQH135:PQH136 PGL135:PGL136 OWP135:OWP136 OMT135:OMT136 MPN121:MPN124 MZJ121:MZJ124 NJF121:NJF124 NTB121:NTB124 OCX121:OCX124 OMT121:OMT124 OWP121:OWP124 PGL121:PGL124 PQH121:PQH124 QAD121:QAD124 QJZ121:QJZ124 QTV121:QTV124 RDR121:RDR124 RNN121:RNN124 RXJ121:RXJ124 SHF121:SHF124 SRB121:SRB124 TAX121:TAX124 TKT121:TKT124 TUP121:TUP124 UEL121:UEL124 UOH121:UOH124 UYD121:UYD124 VHZ121:VHZ124 VRV121:VRV124 WBR121:WBR124 WLN121:WLN124 WVJ121:WVJ124 IX121:IX124 ST121:ST124 ACP121:ACP124 AML121:AML124 AWH121:AWH124 BGD121:BGD124 BPZ121:BPZ124 BZV121:BZV124 CJR121:CJR124 CTN121:CTN124 DDJ121:DDJ124 DNF121:DNF124 DXB121:DXB124 EGX121:EGX124 EQT121:EQT124 FAP121:FAP124 LCD121:LCD124 FKL121:FKL124 FUH121:FUH124 GED121:GED124 GNZ121:GNZ124 GXV121:GXV124 HHR121:HHR124 HRN121:HRN124 IBJ121:IBJ124 ILF121:ILF124 IVB121:IVB124 JEX121:JEX124 JOT121:JOT124 JYP121:JYP124 KIL121:KIL124 KSH121:KSH124 LLZ121:LLZ124 LVV121:LVV124 MFR121:MFR124 MZJ128:MZJ131 NJF128:NJF131 NTB128:NTB131 OCX128:OCX131 OMT128:OMT131 OWP128:OWP131 PGL128:PGL131 PQH128:PQH131 QAD128:QAD131 QJZ128:QJZ131 QTV128:QTV131 RDR128:RDR131 RNN128:RNN131 RXJ128:RXJ131 SHF128:SHF131 SRB128:SRB131 TAX128:TAX131 TKT128:TKT131 TUP128:TUP131 UEL128:UEL131 UOH128:UOH131 UYD128:UYD131 VHZ128:VHZ131 VRV128:VRV131 WBR128:WBR131 WLN128:WLN131 WVJ128:WVJ131 IX128:IX131 ST128:ST131 ACP128:ACP131 AML128:AML131 AWH128:AWH131 BGD128:BGD131 BPZ128:BPZ131 BZV128:BZV131 CJR128:CJR131 CTN128:CTN131 DDJ128:DDJ131 DNF128:DNF131 DXB128:DXB131 EGX128:EGX131 EQT128:EQT131 FAP128:FAP131 LCD128:LCD131 FKL128:FKL131 FUH128:FUH131 GED128:GED131 GNZ128:GNZ131 GXV128:GXV131 HHR128:HHR131 HRN128:HRN131 IBJ128:IBJ131 ILF128:ILF131 IVB128:IVB131 JEX128:JEX131 JOT128:JOT131 JYP128:JYP131 KIL128:KIL131 KSH128:KSH131 LLZ128:LLZ131 LVV128:LVV131 MFR128:MFR131 OCX135:OCX136 MPN128:MPN131">
@@ -9877,7 +9755,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22 C8">
       <formula1>"Projected,Original,Seasonal,Recommended"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C107 C150 B162:B163">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C107 C150 B162">
       <formula1>"APPROVED, PENDING FOR APPROVAL, ERROR, ,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N117 N140 N144">
@@ -9900,13 +9778,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
+    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39772.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39772.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="462">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1428,6 +1428,54 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"7718270708","modelId":"2569498829","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"1100014288","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600489","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600490","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"1108600491","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1460910151","dealId":"5884376269","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7428600888","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7428600889","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7428600890","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7420014469","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5884376269","modelId":"1460910151","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7420014481","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600888","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600889","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600890","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1460910151","dealId":"5884376269","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7428600910","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7428600911","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7428600912","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7420014481","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5884376269","modelId":"1460910151","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7420014482","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600910","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600911","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600912","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1460910151","dealId":"5884376269","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7428600891","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7428600892","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7428600893","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"7420014470","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5884376269","modelId":"1460910151","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7420014483","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600891","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600892","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600893","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"1460910151","dealId":"5884376269","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7428600916","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7428600917","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7428600918","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"7420014483","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5884376269","modelId":"1460910151","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7420014484","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600916","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600917","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7428600918","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5946680119","dealId":"6734493921","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8958601429","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8958601430","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8958601431","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"8950014767","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6734493921","modelId":"5946680119","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8950014779","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601429","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601430","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601431","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5946680119","dealId":"6734493921","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8958601451","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8958601452","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8958601453","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"8950014779","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6734493921","modelId":"5946680119","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8950014780","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601451","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601452","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601453","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5946680119","dealId":"6734493921","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8958601432","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8958601433","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8958601434","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"8950014768","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6734493921","modelId":"5946680119","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8950014781","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601432","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601433","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601434","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5946680119","dealId":"6734493921","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"8958601457","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"8958601458","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"8958601459","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"8950014781","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"6734493921","modelId":"5946680119","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"8950014782","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601457","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601458","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"8958601459","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -2488,13 +2536,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.7265625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="94.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="11" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.26953125" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="94.54296875" collapsed="true"/>
+    <col min="3" max="11" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="39.26953125" collapsed="true"/>
+    <col min="14" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -8415,10 +8463,10 @@
       </c>
       <c r="Z123" s="76"/>
       <c r="AU123" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="AV123" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8481,10 +8529,10 @@
       </c>
       <c r="Z124" s="81"/>
       <c r="AU124" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AV124" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
     <row r="126" spans="1:48" x14ac:dyDescent="0.35">
@@ -8793,10 +8841,10 @@
       </c>
       <c r="Z130" s="76"/>
       <c r="AU130" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AV130" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8861,10 +8909,10 @@
       </c>
       <c r="Z131" s="81"/>
       <c r="AU131" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AV131" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.35">
@@ -9778,13 +9826,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">
